--- a/src/assets/kr2018.xlsx
+++ b/src/assets/kr2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Lista braci - Reg. 2018" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,9 +14,9 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">'Kwatery obce - Reg. 2018'!$A$1:$K$175</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Kwatery U Buzunów - Reg. 2018'!$A$1:$L$152</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Kwatery U Buzunów - Reg. 2018'!$A$1:$L$147</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Lista braci - Reg. 2018'!$A$1:$T$537</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Kwatery U Buzunów - Reg. 2018'!$A$1:$I$150</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Kwatery U Buzunów - Reg. 2018'!$A$1:$I$147</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="491">
   <si>
     <t xml:space="preserve">Lp. </t>
   </si>
@@ -1376,33 +1376,6 @@
   </si>
   <si>
     <t xml:space="preserve">razem domki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">razem Buzun domek 6 - parter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">razem Buzun domki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Razem Buzun - bud. A + B + domki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cena za wyżywienie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prebiter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">małżeństwo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">małżeństwo z dzieckiem (dziećmi) lub ciąża</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choroby - na miejscu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">niańka obca lub z rodziny - oddzielny pokój</t>
   </si>
   <si>
     <t xml:space="preserve">kondygnacja - nr pokoju/il. pokoi</t>
@@ -1886,7 +1859,7 @@
       <charset val="238"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1968,7 +1941,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF66FF66"/>
-        <bgColor rgb="FF99FF66"/>
+        <bgColor rgb="FF45CD33"/>
       </patternFill>
     </fill>
     <fill>
@@ -2011,18 +1984,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor rgb="FF45CD33"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA6A6A6"/>
-        <bgColor rgb="FF9999FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99FF66"/>
-        <bgColor rgb="FF66FF66"/>
       </patternFill>
     </fill>
     <fill>
@@ -2434,7 +2395,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="911">
+  <cellXfs count="881">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5363,322 +5324,206 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="22" borderId="28" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="18" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="22" borderId="30" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="24" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="38" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="28" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="30" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="22" borderId="30" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="8" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="30" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="30" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="30" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="13" borderId="30" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="51" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="24" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="15" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="8" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="22" borderId="30" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="20" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="7" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="6" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="6" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="12" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="32" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="8" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="13" borderId="8" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="26" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="6" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="24" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="22" borderId="44" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="22" borderId="30" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="22" borderId="44" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="21" borderId="2" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="21" borderId="4" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="21" borderId="4" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="21" borderId="4" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="21" borderId="5" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="32" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="15" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="10" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="6" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="6" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="12" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="7" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="15" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="18" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="23" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="7" fillId="13" borderId="13" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="18" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="24" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="38" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="28" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="30" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="8" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="13" borderId="8" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="30" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="30" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="30" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="13" borderId="30" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="51" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="24" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="15" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="8" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="20" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="7" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="6" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="6" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="12" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="32" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="8" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="13" borderId="8" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="26" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="6" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="24" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="32" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="15" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="10" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="16" borderId="15" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5707,10 +5552,6 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="15" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5783,11 +5624,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="24" borderId="8" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="22" borderId="8" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="24" borderId="15" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="22" borderId="15" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5803,7 +5644,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="24" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="22" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5815,7 +5656,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="24" borderId="30" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="22" borderId="30" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5855,7 +5696,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="24" borderId="24" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="7" fillId="22" borderId="24" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6127,7 +5968,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00B0F0"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF99FF66"/>
+      <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF66FF"/>
@@ -6140,7 +5981,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FFA6A6A6"/>
+      <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF31859C"/>
       <rgbColor rgb="FF003300"/>
@@ -6165,7 +6006,7 @@
   </sheetPr>
   <dimension ref="A1:Y1540"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A339" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -34329,8 +34170,8 @@
   </sheetPr>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A142" activeCellId="0" sqref="A142"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A139" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A148" activeCellId="0" sqref="A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -38491,208 +38332,23 @@
         <v>412</v>
       </c>
     </row>
-    <row r="148" s="737" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="732" t="n">
-        <v>1</v>
-      </c>
-      <c r="B148" s="733" t="n">
-        <f aca="false">SUM(B142:B147)</f>
-        <v>6</v>
-      </c>
-      <c r="C148" s="733" t="n">
-        <f aca="false">SUM(C142:C147)</f>
-        <v>0</v>
-      </c>
-      <c r="D148" s="733" t="n">
-        <f aca="false">SUM(D142:D147)</f>
-        <v>6</v>
-      </c>
-      <c r="E148" s="733" t="n">
-        <f aca="false">SUM(E142:E147)</f>
-        <v>6</v>
-      </c>
-      <c r="F148" s="734" t="s">
-        <v>413</v>
-      </c>
-      <c r="G148" s="735" t="n">
-        <f aca="false">SUM(G142:G147)</f>
-        <v>6</v>
-      </c>
-      <c r="H148" s="735" t="n">
-        <f aca="false">SUM(H142:H147)</f>
-        <v>0</v>
-      </c>
-      <c r="I148" s="736" t="n">
-        <f aca="false">G148-D148</f>
-        <v>0</v>
-      </c>
-      <c r="K148" s="738"/>
-    </row>
-    <row r="149" s="737" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="732" t="e">
-        <f aca="false">#REF!+#REF!+#REF!+#REF!+#REF!+A148</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B149" s="739" t="e">
-        <f aca="false">#REF!+#REF!+#REF!+#REF!+#REF!+B148</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C149" s="739" t="e">
-        <f aca="false">#REF!+#REF!+#REF!+#REF!+#REF!+C148</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D149" s="739" t="e">
-        <f aca="false">#REF!+#REF!+#REF!+#REF!+#REF!+D148</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E149" s="739" t="e">
-        <f aca="false">#REF!+#REF!+#REF!+#REF!+#REF!+E148</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F149" s="734" t="s">
-        <v>414</v>
-      </c>
-      <c r="G149" s="734" t="e">
-        <f aca="false">#REF!+#REF!+#REF!+#REF!+#REF!+G148</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H149" s="734" t="e">
-        <f aca="false">#REF!+#REF!+#REF!+#REF!+#REF!+H148</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I149" s="740" t="e">
-        <f aca="false">G149-D149</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="150" s="746" customFormat="true" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="741" t="e">
-        <f aca="false">#REF!+#REF!+A149</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B150" s="742" t="e">
-        <f aca="false">#REF!+#REF!+B149</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C150" s="742" t="e">
-        <f aca="false">#REF!+#REF!+C149</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D150" s="742" t="e">
-        <f aca="false">#REF!+#REF!+D149</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E150" s="742" t="e">
-        <f aca="false">#REF!+#REF!+E149</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F150" s="743" t="s">
-        <v>415</v>
-      </c>
-      <c r="G150" s="744" t="e">
-        <f aca="false">#REF!+#REF!+G149</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H150" s="744" t="e">
-        <f aca="false">#REF!+#REF!+H149</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I150" s="745" t="e">
-        <f aca="false">G150-D150</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K150" s="12"/>
-    </row>
-    <row r="151" s="746" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="610"/>
-      <c r="B151" s="610"/>
-      <c r="C151" s="610"/>
-      <c r="D151" s="610"/>
-      <c r="E151" s="610"/>
-      <c r="F151" s="747"/>
-      <c r="G151" s="748"/>
-      <c r="H151" s="748"/>
-      <c r="I151" s="748"/>
-    </row>
-    <row r="152" s="746" customFormat="true" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="610"/>
-      <c r="B152" s="610"/>
-      <c r="C152" s="610"/>
-      <c r="D152" s="749" t="n">
-        <v>60</v>
-      </c>
-      <c r="E152" s="750" t="s">
-        <v>416</v>
-      </c>
-      <c r="F152" s="747"/>
-      <c r="G152" s="748"/>
-      <c r="H152" s="748"/>
-      <c r="I152" s="748"/>
-    </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D153" s="751"/>
-      <c r="E153" s="12" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D154" s="752"/>
-      <c r="E154" s="12" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D155" s="753"/>
-      <c r="E155" s="12" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D156" s="754"/>
-      <c r="E156" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D157" s="755"/>
-      <c r="E157" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D158" s="756"/>
-      <c r="E158" s="12" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D159" s="757"/>
-      <c r="E159" s="12" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D160" s="758"/>
-      <c r="E160" s="12"/>
-    </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D161" s="758"/>
-      <c r="E161" s="12"/>
-    </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D162" s="758"/>
-      <c r="E162" s="12"/>
-    </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D163" s="759"/>
-      <c r="E163" s="12"/>
-    </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D164" s="760"/>
-      <c r="E164" s="77" t="s">
-        <v>41</v>
-      </c>
-    </row>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -38773,9 +38429,8 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <rowBreaks count="2" manualBreakCount="2">
+  <rowBreaks count="1" manualBreakCount="1">
     <brk id="40" man="true" max="16383" min="0"/>
-    <brk id="150" man="true" max="16383" min="0"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="10" man="true" max="65535" min="0"/>
@@ -38790,7 +38445,7 @@
   </sheetPr>
   <dimension ref="A1:X1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A171" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A171" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A176" activeCellId="0" sqref="A176"/>
     </sheetView>
   </sheetViews>
@@ -38802,52 +38457,52 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="518" width="6.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="518" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="518" width="5.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="761" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="761" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="732" width="24.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="732" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="519" width="8.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="762" width="19.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="733" width="19.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="518" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="518" width="10.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="13" style="763" width="9.13"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="14" style="764" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="13" style="734" width="9.13"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="14" style="735" width="9.13"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="15" style="518" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="31.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="765" t="s">
-        <v>422</v>
-      </c>
-      <c r="B1" s="766" t="s">
-        <v>423</v>
-      </c>
-      <c r="C1" s="766" t="s">
-        <v>424</v>
-      </c>
-      <c r="D1" s="766" t="s">
-        <v>425</v>
-      </c>
-      <c r="E1" s="766" t="s">
-        <v>426</v>
-      </c>
-      <c r="F1" s="766" t="s">
+      <c r="A1" s="736" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1" s="737" t="s">
+        <v>414</v>
+      </c>
+      <c r="C1" s="737" t="s">
+        <v>415</v>
+      </c>
+      <c r="D1" s="737" t="s">
+        <v>416</v>
+      </c>
+      <c r="E1" s="737" t="s">
+        <v>417</v>
+      </c>
+      <c r="F1" s="737" t="s">
         <v>356</v>
       </c>
-      <c r="G1" s="767" t="s">
+      <c r="G1" s="738" t="s">
         <v>357</v>
       </c>
-      <c r="H1" s="767" t="s">
+      <c r="H1" s="738" t="s">
         <v>358</v>
       </c>
-      <c r="I1" s="767" t="s">
+      <c r="I1" s="738" t="s">
         <v>359</v>
       </c>
-      <c r="J1" s="768" t="s">
+      <c r="J1" s="739" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="769" t="s">
-        <v>427</v>
+      <c r="A2" s="740" t="s">
+        <v>418</v>
       </c>
       <c r="B2" s="430" t="n">
         <v>0</v>
@@ -38858,11 +38513,11 @@
       <c r="D2" s="589" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="770" t="n">
+      <c r="E2" s="741" t="n">
         <f aca="false">SUM(B2:B2)+SUM(C2:C2)*2+SUM(D2:D2)*2</f>
         <v>2</v>
       </c>
-      <c r="F2" s="771" t="n">
+      <c r="F2" s="742" t="n">
         <v>2</v>
       </c>
       <c r="G2" s="533" t="str">
@@ -38872,7 +38527,7 @@
       <c r="H2" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="I2" s="772" t="n">
+      <c r="I2" s="534" t="n">
         <f aca="false">H2-E2</f>
         <v>0</v>
       </c>
@@ -38882,23 +38537,23 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="773" t="s">
-        <v>428</v>
-      </c>
-      <c r="B3" s="774" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="775" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="775" t="n">
+      <c r="A3" s="743" t="s">
+        <v>419</v>
+      </c>
+      <c r="B3" s="744" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="745" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="745" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="648" t="n">
         <f aca="false">SUM(B3:B5)+SUM(C3:C5)+SUM(D3:D5)*2</f>
         <v>4</v>
       </c>
-      <c r="F3" s="771" t="n">
+      <c r="F3" s="742" t="n">
         <v>2</v>
       </c>
       <c r="G3" s="533" t="str">
@@ -38908,7 +38563,7 @@
       <c r="H3" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="I3" s="776" t="n">
+      <c r="I3" s="746" t="n">
         <f aca="false">H3-E3</f>
         <v>-2</v>
       </c>
@@ -38929,10 +38584,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="648"/>
-      <c r="F4" s="777" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="778"/>
+      <c r="F4" s="747" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="748"/>
       <c r="H4" s="31" t="n">
         <v>0</v>
       </c>
@@ -38940,10 +38595,10 @@
         <f aca="false">H4-E4</f>
         <v>0</v>
       </c>
-      <c r="J4" s="779"/>
+      <c r="J4" s="749"/>
     </row>
     <row r="5" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="780"/>
+      <c r="A5" s="750"/>
       <c r="B5" s="55" t="n">
         <v>1</v>
       </c>
@@ -38957,7 +38612,7 @@
       <c r="F5" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="G5" s="781"/>
+      <c r="G5" s="751"/>
       <c r="H5" s="48" t="n">
         <v>0</v>
       </c>
@@ -38968,8 +38623,8 @@
       <c r="J5" s="622"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="773" t="s">
-        <v>429</v>
+      <c r="A6" s="743" t="s">
+        <v>420</v>
       </c>
       <c r="B6" s="430" t="n">
         <v>0</v>
@@ -38984,17 +38639,17 @@
         <f aca="false">SUM(B6:B7)+SUM(C6:C7)*2+SUM(D6:D7)*2</f>
         <v>3</v>
       </c>
-      <c r="F6" s="771" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="782" t="str">
+      <c r="F6" s="742" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="752" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!D47</f>
         <v>Rozpędowski Bogdan i Krystyna</v>
       </c>
       <c r="H6" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="I6" s="772" t="n">
+      <c r="I6" s="534" t="n">
         <f aca="false">H6-E6</f>
         <v>-1</v>
       </c>
@@ -39004,7 +38659,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="780"/>
+      <c r="A7" s="750"/>
       <c r="B7" s="55" t="n">
         <v>1</v>
       </c>
@@ -39018,7 +38673,7 @@
       <c r="F7" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="G7" s="781"/>
+      <c r="G7" s="751"/>
       <c r="H7" s="48" t="n">
         <v>0</v>
       </c>
@@ -39029,8 +38684,8 @@
       <c r="J7" s="622"/>
     </row>
     <row r="8" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="773" t="s">
-        <v>430</v>
+      <c r="A8" s="743" t="s">
+        <v>421</v>
       </c>
       <c r="B8" s="430" t="n">
         <v>0</v>
@@ -39045,7 +38700,7 @@
         <f aca="false">SUM(B8:B10)+SUM(C8:C10)*2+SUM(D8:D10)*2</f>
         <v>4</v>
       </c>
-      <c r="F8" s="771" t="n">
+      <c r="F8" s="742" t="n">
         <v>2</v>
       </c>
       <c r="G8" s="533" t="str">
@@ -39055,7 +38710,7 @@
       <c r="H8" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="I8" s="776" t="n">
+      <c r="I8" s="746" t="n">
         <f aca="false">H8-E8</f>
         <v>-2</v>
       </c>
@@ -39067,20 +38722,20 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="325"/>
-      <c r="B9" s="777" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="783" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="783" t="n">
+      <c r="B9" s="747" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="753" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="753" t="n">
         <v>0</v>
       </c>
       <c r="E9" s="648"/>
-      <c r="F9" s="777" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="778"/>
+      <c r="F9" s="747" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="748"/>
       <c r="H9" s="31" t="n">
         <v>0</v>
       </c>
@@ -39088,11 +38743,11 @@
         <f aca="false">H9-E9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="779"/>
-      <c r="K9" s="784"/>
+      <c r="J9" s="749"/>
+      <c r="K9" s="754"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="780"/>
+      <c r="A10" s="750"/>
       <c r="B10" s="55" t="n">
         <v>1</v>
       </c>
@@ -39106,7 +38761,7 @@
       <c r="F10" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="G10" s="781"/>
+      <c r="G10" s="751"/>
       <c r="H10" s="48" t="n">
         <v>0</v>
       </c>
@@ -39115,13 +38770,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="622"/>
-      <c r="K10" s="785" t="s">
+      <c r="K10" s="755" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="786" t="s">
-        <v>431</v>
+      <c r="A11" s="756" t="s">
+        <v>422</v>
       </c>
       <c r="B11" s="430" t="n">
         <v>0</v>
@@ -39132,11 +38787,11 @@
       <c r="D11" s="589" t="n">
         <v>1</v>
       </c>
-      <c r="E11" s="770" t="n">
+      <c r="E11" s="741" t="n">
         <f aca="false">SUM(B11:B11)+SUM(C11:C11)*2+SUM(D11:D11)*2</f>
         <v>2</v>
       </c>
-      <c r="F11" s="771" t="n">
+      <c r="F11" s="742" t="n">
         <v>2</v>
       </c>
       <c r="G11" s="533" t="str">
@@ -39146,7 +38801,7 @@
       <c r="H11" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="I11" s="772" t="n">
+      <c r="I11" s="534" t="n">
         <f aca="false">H11-E11</f>
         <v>0</v>
       </c>
@@ -39154,13 +38809,13 @@
         <f aca="false">'Lista braci - Reg. 2018'!B59</f>
         <v>Lublin Pallotyni 1</v>
       </c>
-      <c r="K11" s="787" t="s">
+      <c r="K11" s="757" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="773" t="s">
-        <v>432</v>
+      <c r="A12" s="743" t="s">
+        <v>423</v>
       </c>
       <c r="B12" s="430" t="n">
         <v>0</v>
@@ -39175,7 +38830,7 @@
         <f aca="false">SUM(B12:B13)+SUM(C12:C13)*2+SUM(D12:D13)*2</f>
         <v>3</v>
       </c>
-      <c r="F12" s="771" t="n">
+      <c r="F12" s="742" t="n">
         <v>2</v>
       </c>
       <c r="G12" s="533" t="str">
@@ -39185,7 +38840,7 @@
       <c r="H12" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="I12" s="772" t="n">
+      <c r="I12" s="534" t="n">
         <f aca="false">H12-E12</f>
         <v>-1</v>
       </c>
@@ -39193,12 +38848,12 @@
         <f aca="false">'Lista braci - Reg. 2018'!B61</f>
         <v>Lublin Pallotyni 1</v>
       </c>
-      <c r="K12" s="787" t="s">
+      <c r="K12" s="757" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="780"/>
+      <c r="A13" s="750"/>
       <c r="B13" s="55" t="n">
         <v>1</v>
       </c>
@@ -39212,7 +38867,7 @@
       <c r="F13" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="G13" s="781"/>
+      <c r="G13" s="751"/>
       <c r="H13" s="48" t="n">
         <v>0</v>
       </c>
@@ -39221,31 +38876,31 @@
         <v>0</v>
       </c>
       <c r="J13" s="622"/>
-      <c r="K13" s="787" t="s">
+      <c r="K13" s="757" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="14" s="518" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="591" t="s">
-        <v>433</v>
-      </c>
-      <c r="B14" s="788" t="n">
+        <v>424</v>
+      </c>
+      <c r="B14" s="758" t="n">
         <v>0</v>
       </c>
       <c r="C14" s="589" t="n">
         <v>0</v>
       </c>
-      <c r="D14" s="789" t="n">
+      <c r="D14" s="759" t="n">
         <v>1</v>
       </c>
       <c r="E14" s="531" t="n">
         <f aca="false">SUM(B14:B15)+SUM(C14:C15)*2+SUM(D14:D15)*2</f>
         <v>2</v>
       </c>
-      <c r="F14" s="790" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" s="791" t="str">
+      <c r="F14" s="760" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" s="761" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!D271</f>
         <v>Jamróz Marek i Klara</v>
       </c>
@@ -39256,27 +38911,27 @@
         <f aca="false">H14-E14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="792" t="str">
+      <c r="J14" s="762" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!B271</f>
         <v>Lublin Salezjanie 1</v>
       </c>
     </row>
     <row r="15" s="518" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="593"/>
-      <c r="B15" s="793" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="794" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="794" t="n">
+      <c r="B15" s="763" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="764" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="764" t="n">
         <v>0</v>
       </c>
       <c r="E15" s="531"/>
-      <c r="F15" s="795" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="781"/>
+      <c r="F15" s="765" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="751"/>
       <c r="H15" s="48" t="n">
         <v>0</v>
       </c>
@@ -39288,22 +38943,22 @@
     </row>
     <row r="16" s="518" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="591" t="s">
-        <v>434</v>
-      </c>
-      <c r="B16" s="788" t="n">
+        <v>425</v>
+      </c>
+      <c r="B16" s="758" t="n">
         <v>0</v>
       </c>
       <c r="C16" s="589" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="789" t="n">
+      <c r="D16" s="759" t="n">
         <v>1</v>
       </c>
       <c r="E16" s="531" t="n">
         <f aca="false">SUM(B16:B17)+SUM(C16:C17)*2+SUM(D16:D17)*2</f>
         <v>2</v>
       </c>
-      <c r="F16" s="796" t="n">
+      <c r="F16" s="766" t="n">
         <v>2</v>
       </c>
       <c r="G16" s="533" t="str">
@@ -39313,7 +38968,7 @@
       <c r="H16" s="280" t="n">
         <v>2</v>
       </c>
-      <c r="I16" s="776" t="n">
+      <c r="I16" s="746" t="n">
         <f aca="false">H16-E16</f>
         <v>0</v>
       </c>
@@ -39324,20 +38979,20 @@
     </row>
     <row r="17" s="518" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="593"/>
-      <c r="B17" s="793" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="794" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="794" t="n">
+      <c r="B17" s="763" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="764" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="764" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="531"/>
-      <c r="F17" s="797" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="791"/>
+      <c r="F17" s="767" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="761"/>
       <c r="H17" s="15" t="n">
         <v>0</v>
       </c>
@@ -39345,36 +39000,36 @@
         <f aca="false">H17-E17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="792"/>
+      <c r="J17" s="762"/>
     </row>
     <row r="18" s="518" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="591" t="s">
-        <v>435</v>
-      </c>
-      <c r="B18" s="788" t="n">
+        <v>426</v>
+      </c>
+      <c r="B18" s="758" t="n">
         <v>0</v>
       </c>
       <c r="C18" s="589" t="n">
         <v>0</v>
       </c>
-      <c r="D18" s="789" t="n">
+      <c r="D18" s="759" t="n">
         <v>1</v>
       </c>
       <c r="E18" s="531" t="n">
         <f aca="false">SUM(B18:B19)+SUM(C18:C19)*2+SUM(D18:D19)*2</f>
         <v>2</v>
       </c>
-      <c r="F18" s="796" t="n">
-        <v>2</v>
-      </c>
-      <c r="G18" s="782" t="str">
+      <c r="F18" s="766" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" s="752" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!D299</f>
         <v>Pluta Andrzej i Ewa</v>
       </c>
       <c r="H18" s="280" t="n">
         <v>2</v>
       </c>
-      <c r="I18" s="772" t="n">
+      <c r="I18" s="534" t="n">
         <f aca="false">H18-E18</f>
         <v>0</v>
       </c>
@@ -39385,20 +39040,20 @@
     </row>
     <row r="19" s="518" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="593"/>
-      <c r="B19" s="793" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="794" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="794" t="n">
+      <c r="B19" s="763" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="764" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="764" t="n">
         <v>0</v>
       </c>
       <c r="E19" s="531"/>
-      <c r="F19" s="797" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="781"/>
+      <c r="F19" s="767" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="751"/>
       <c r="H19" s="15" t="n">
         <v>0</v>
       </c>
@@ -39410,32 +39065,32 @@
     </row>
     <row r="20" s="518" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="591" t="s">
-        <v>436</v>
-      </c>
-      <c r="B20" s="788" t="n">
+        <v>427</v>
+      </c>
+      <c r="B20" s="758" t="n">
         <v>0</v>
       </c>
       <c r="C20" s="589" t="n">
         <v>0</v>
       </c>
-      <c r="D20" s="789" t="n">
+      <c r="D20" s="759" t="n">
         <v>1</v>
       </c>
       <c r="E20" s="531" t="n">
         <f aca="false">SUM(B20:B21)+SUM(C20:C21)*2+SUM(D20:D21)*2</f>
         <v>2</v>
       </c>
-      <c r="F20" s="796" t="n">
-        <v>2</v>
-      </c>
-      <c r="G20" s="782" t="str">
+      <c r="F20" s="766" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" s="752" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!D300</f>
         <v>Rybak Paweł i Agnieszka</v>
       </c>
       <c r="H20" s="280" t="n">
         <v>2</v>
       </c>
-      <c r="I20" s="772" t="n">
+      <c r="I20" s="534" t="n">
         <f aca="false">H20-E20</f>
         <v>0</v>
       </c>
@@ -39446,20 +39101,20 @@
     </row>
     <row r="21" s="518" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="593"/>
-      <c r="B21" s="793" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="794" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="794" t="n">
+      <c r="B21" s="763" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="764" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="764" t="n">
         <v>0</v>
       </c>
       <c r="E21" s="531"/>
-      <c r="F21" s="797" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="781"/>
+      <c r="F21" s="767" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="751"/>
       <c r="H21" s="15" t="n">
         <v>0</v>
       </c>
@@ -39471,32 +39126,32 @@
     </row>
     <row r="22" s="518" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="591" t="s">
-        <v>437</v>
-      </c>
-      <c r="B22" s="788" t="n">
+        <v>428</v>
+      </c>
+      <c r="B22" s="758" t="n">
         <v>0</v>
       </c>
       <c r="C22" s="589" t="n">
         <v>0</v>
       </c>
-      <c r="D22" s="789" t="n">
+      <c r="D22" s="759" t="n">
         <v>1</v>
       </c>
       <c r="E22" s="531" t="n">
         <f aca="false">SUM(B22:B23)+SUM(C22:C23)*2+SUM(D22:D23)*2</f>
         <v>2</v>
       </c>
-      <c r="F22" s="796" t="n">
-        <v>2</v>
-      </c>
-      <c r="G22" s="782" t="str">
+      <c r="F22" s="766" t="n">
+        <v>2</v>
+      </c>
+      <c r="G22" s="752" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!D301</f>
         <v>Sędzielewski Robert i Monika</v>
       </c>
       <c r="H22" s="280" t="n">
         <v>2</v>
       </c>
-      <c r="I22" s="772" t="n">
+      <c r="I22" s="534" t="n">
         <f aca="false">H22-E22</f>
         <v>0</v>
       </c>
@@ -39507,20 +39162,20 @@
     </row>
     <row r="23" s="518" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="593"/>
-      <c r="B23" s="793" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="794" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="794" t="n">
+      <c r="B23" s="763" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="764" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="764" t="n">
         <v>0</v>
       </c>
       <c r="E23" s="531"/>
-      <c r="F23" s="797" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="781"/>
+      <c r="F23" s="767" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="751"/>
       <c r="H23" s="15" t="n">
         <v>0</v>
       </c>
@@ -39532,32 +39187,32 @@
     </row>
     <row r="24" s="518" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="591" t="s">
-        <v>438</v>
-      </c>
-      <c r="B24" s="788" t="n">
+        <v>429</v>
+      </c>
+      <c r="B24" s="758" t="n">
         <v>0</v>
       </c>
       <c r="C24" s="589" t="n">
         <v>0</v>
       </c>
-      <c r="D24" s="789" t="n">
+      <c r="D24" s="759" t="n">
         <v>1</v>
       </c>
       <c r="E24" s="531" t="n">
         <f aca="false">SUM(B24:B25)+SUM(C24:C25)*2+SUM(D24:D25)*2</f>
         <v>2</v>
       </c>
-      <c r="F24" s="796" t="n">
-        <v>2</v>
-      </c>
-      <c r="G24" s="782" t="str">
+      <c r="F24" s="766" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" s="752" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!D303</f>
         <v>Wesołowski Jacek i Katarzyna</v>
       </c>
       <c r="H24" s="280" t="n">
         <v>2</v>
       </c>
-      <c r="I24" s="772" t="n">
+      <c r="I24" s="534" t="n">
         <f aca="false">H24-E24</f>
         <v>0</v>
       </c>
@@ -39568,20 +39223,20 @@
     </row>
     <row r="25" s="518" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="593"/>
-      <c r="B25" s="793" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="794" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="794" t="n">
+      <c r="B25" s="763" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="764" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="764" t="n">
         <v>0</v>
       </c>
       <c r="E25" s="531"/>
-      <c r="F25" s="797" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="781"/>
+      <c r="F25" s="767" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="751"/>
       <c r="H25" s="15" t="n">
         <v>0</v>
       </c>
@@ -39593,32 +39248,32 @@
     </row>
     <row r="26" s="518" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="591" t="s">
-        <v>439</v>
-      </c>
-      <c r="B26" s="788" t="n">
+        <v>430</v>
+      </c>
+      <c r="B26" s="758" t="n">
         <v>0</v>
       </c>
       <c r="C26" s="589" t="n">
         <v>0</v>
       </c>
-      <c r="D26" s="789" t="n">
+      <c r="D26" s="759" t="n">
         <v>1</v>
       </c>
       <c r="E26" s="531" t="n">
         <f aca="false">SUM(B26:B27)+SUM(C26:C27)*2+SUM(D26:D27)*2</f>
         <v>2</v>
       </c>
-      <c r="F26" s="796" t="n">
-        <v>2</v>
-      </c>
-      <c r="G26" s="798" t="str">
+      <c r="F26" s="766" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" s="768" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!D304</f>
         <v>Żurek Adam i Dorota - od piątku</v>
       </c>
       <c r="H26" s="280" t="n">
         <v>2</v>
       </c>
-      <c r="I26" s="772" t="n">
+      <c r="I26" s="534" t="n">
         <f aca="false">H26-E26</f>
         <v>0</v>
       </c>
@@ -39629,20 +39284,20 @@
     </row>
     <row r="27" s="518" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="593"/>
-      <c r="B27" s="793" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" s="794" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="794" t="n">
+      <c r="B27" s="763" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="764" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="764" t="n">
         <v>0</v>
       </c>
       <c r="E27" s="531"/>
-      <c r="F27" s="797" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="781"/>
+      <c r="F27" s="767" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="751"/>
       <c r="H27" s="15" t="n">
         <v>0</v>
       </c>
@@ -39654,32 +39309,32 @@
     </row>
     <row r="28" s="518" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="591" t="s">
-        <v>440</v>
-      </c>
-      <c r="B28" s="788" t="n">
+        <v>431</v>
+      </c>
+      <c r="B28" s="758" t="n">
         <v>0</v>
       </c>
       <c r="C28" s="589" t="n">
         <v>0</v>
       </c>
-      <c r="D28" s="789" t="n">
+      <c r="D28" s="759" t="n">
         <v>1</v>
       </c>
       <c r="E28" s="531" t="n">
         <f aca="false">SUM(B28:B29)+SUM(C28:C29)*2+SUM(D28:D29)*2</f>
         <v>2</v>
       </c>
-      <c r="F28" s="796" t="n">
-        <v>2</v>
-      </c>
-      <c r="G28" s="782" t="str">
+      <c r="F28" s="766" t="n">
+        <v>2</v>
+      </c>
+      <c r="G28" s="752" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!D315</f>
         <v>Wrona Robert i Anna</v>
       </c>
       <c r="H28" s="280" t="n">
         <v>2</v>
       </c>
-      <c r="I28" s="772" t="n">
+      <c r="I28" s="534" t="n">
         <f aca="false">H28-E28</f>
         <v>0</v>
       </c>
@@ -39690,20 +39345,20 @@
     </row>
     <row r="29" s="518" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="593"/>
-      <c r="B29" s="793" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" s="794" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" s="794" t="n">
+      <c r="B29" s="763" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="764" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="764" t="n">
         <v>0</v>
       </c>
       <c r="E29" s="531"/>
-      <c r="F29" s="797" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="781"/>
+      <c r="F29" s="767" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="751"/>
       <c r="H29" s="15" t="n">
         <v>0</v>
       </c>
@@ -39715,32 +39370,32 @@
     </row>
     <row r="30" s="518" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="591" t="s">
-        <v>441</v>
-      </c>
-      <c r="B30" s="788" t="n">
+        <v>432</v>
+      </c>
+      <c r="B30" s="758" t="n">
         <v>0</v>
       </c>
       <c r="C30" s="589" t="n">
         <v>0</v>
       </c>
-      <c r="D30" s="789" t="n">
+      <c r="D30" s="759" t="n">
         <v>1</v>
       </c>
       <c r="E30" s="531" t="n">
         <f aca="false">SUM(B30:B31)+SUM(C30:C31)*2+SUM(D30:D31)*2</f>
         <v>2</v>
       </c>
-      <c r="F30" s="796" t="n">
-        <v>2</v>
-      </c>
-      <c r="G30" s="782" t="str">
+      <c r="F30" s="766" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" s="752" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!D316</f>
         <v>Borysiuk Paweł i Monika</v>
       </c>
       <c r="H30" s="280" t="n">
         <v>2</v>
       </c>
-      <c r="I30" s="772" t="n">
+      <c r="I30" s="534" t="n">
         <f aca="false">H30-E30</f>
         <v>0</v>
       </c>
@@ -39751,20 +39406,20 @@
     </row>
     <row r="31" s="518" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="593"/>
-      <c r="B31" s="793" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" s="794" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="794" t="n">
+      <c r="B31" s="763" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="764" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="764" t="n">
         <v>0</v>
       </c>
       <c r="E31" s="531"/>
-      <c r="F31" s="797" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="781"/>
+      <c r="F31" s="767" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="751"/>
       <c r="H31" s="15" t="n">
         <v>0</v>
       </c>
@@ -39776,32 +39431,32 @@
     </row>
     <row r="32" s="518" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="591" t="s">
-        <v>442</v>
-      </c>
-      <c r="B32" s="788" t="n">
+        <v>433</v>
+      </c>
+      <c r="B32" s="758" t="n">
         <v>0</v>
       </c>
       <c r="C32" s="589" t="n">
         <v>0</v>
       </c>
-      <c r="D32" s="789" t="n">
+      <c r="D32" s="759" t="n">
         <v>1</v>
       </c>
       <c r="E32" s="531" t="n">
         <f aca="false">SUM(B32:B33)+SUM(C32:C33)*2+SUM(D32:D33)*2</f>
         <v>2</v>
       </c>
-      <c r="F32" s="796" t="n">
-        <v>2</v>
-      </c>
-      <c r="G32" s="782" t="str">
+      <c r="F32" s="766" t="n">
+        <v>2</v>
+      </c>
+      <c r="G32" s="752" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!D317</f>
         <v>Ryś Łukasz i Ewa</v>
       </c>
       <c r="H32" s="280" t="n">
         <v>2</v>
       </c>
-      <c r="I32" s="772" t="n">
+      <c r="I32" s="534" t="n">
         <f aca="false">H32-E32</f>
         <v>0</v>
       </c>
@@ -39812,20 +39467,20 @@
     </row>
     <row r="33" s="518" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="593"/>
-      <c r="B33" s="793" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" s="794" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" s="794" t="n">
+      <c r="B33" s="763" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" s="764" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="764" t="n">
         <v>0</v>
       </c>
       <c r="E33" s="531"/>
-      <c r="F33" s="797" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="781"/>
+      <c r="F33" s="767" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="751"/>
       <c r="H33" s="15" t="n">
         <v>0</v>
       </c>
@@ -39837,32 +39492,32 @@
     </row>
     <row r="34" s="518" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="591" t="s">
-        <v>443</v>
-      </c>
-      <c r="B34" s="788" t="n">
+        <v>434</v>
+      </c>
+      <c r="B34" s="758" t="n">
         <v>0</v>
       </c>
       <c r="C34" s="589" t="n">
         <v>0</v>
       </c>
-      <c r="D34" s="789" t="n">
+      <c r="D34" s="759" t="n">
         <v>1</v>
       </c>
       <c r="E34" s="531" t="n">
         <f aca="false">SUM(B34:B35)+SUM(C34:C35)*2+SUM(D34:D35)*2</f>
         <v>2</v>
       </c>
-      <c r="F34" s="796" t="n">
-        <v>2</v>
-      </c>
-      <c r="G34" s="782" t="str">
+      <c r="F34" s="766" t="n">
+        <v>2</v>
+      </c>
+      <c r="G34" s="752" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!D328</f>
         <v>Kurpiel Andrzej i Elżbieta</v>
       </c>
       <c r="H34" s="280" t="n">
         <v>2</v>
       </c>
-      <c r="I34" s="772" t="n">
+      <c r="I34" s="534" t="n">
         <f aca="false">H34-E34</f>
         <v>0</v>
       </c>
@@ -39873,20 +39528,20 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="593"/>
-      <c r="B35" s="793" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" s="794" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" s="794" t="n">
+      <c r="B35" s="763" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="764" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="764" t="n">
         <v>0</v>
       </c>
       <c r="E35" s="531"/>
-      <c r="F35" s="797" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="781"/>
+      <c r="F35" s="767" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="751"/>
       <c r="H35" s="15" t="n">
         <v>0</v>
       </c>
@@ -39898,32 +39553,32 @@
     </row>
     <row r="36" s="597" customFormat="true" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="591" t="s">
-        <v>444</v>
-      </c>
-      <c r="B36" s="788" t="n">
+        <v>435</v>
+      </c>
+      <c r="B36" s="758" t="n">
         <v>0</v>
       </c>
       <c r="C36" s="589" t="n">
         <v>0</v>
       </c>
-      <c r="D36" s="789" t="n">
+      <c r="D36" s="759" t="n">
         <v>1</v>
       </c>
       <c r="E36" s="531" t="n">
         <f aca="false">SUM(B36:B37)+SUM(C36:C37)*2+SUM(D36:D37)*2</f>
         <v>2</v>
       </c>
-      <c r="F36" s="796" t="n">
-        <v>2</v>
-      </c>
-      <c r="G36" s="782" t="str">
+      <c r="F36" s="766" t="n">
+        <v>2</v>
+      </c>
+      <c r="G36" s="752" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!D330</f>
         <v>Bogacz Ryszard i Maria</v>
       </c>
       <c r="H36" s="280" t="n">
         <v>2</v>
       </c>
-      <c r="I36" s="772" t="n">
+      <c r="I36" s="534" t="n">
         <f aca="false">H36-E36</f>
         <v>0</v>
       </c>
@@ -39931,24 +39586,24 @@
         <f aca="false">'Lista braci - Reg. 2018'!B330</f>
         <v>Lublin Św. Krzyż</v>
       </c>
-      <c r="K36" s="799"/>
+      <c r="K36" s="769"/>
     </row>
     <row r="37" s="597" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="593"/>
-      <c r="B37" s="793" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" s="794" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" s="794" t="n">
+      <c r="B37" s="763" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="764" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="764" t="n">
         <v>0</v>
       </c>
       <c r="E37" s="531"/>
-      <c r="F37" s="797" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="800"/>
+      <c r="F37" s="767" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="770"/>
       <c r="H37" s="15" t="n">
         <v>0</v>
       </c>
@@ -39956,37 +39611,37 @@
         <f aca="false">H37-E37</f>
         <v>0</v>
       </c>
-      <c r="J37" s="801"/>
-      <c r="K37" s="799"/>
+      <c r="J37" s="771"/>
+      <c r="K37" s="769"/>
     </row>
     <row r="38" s="597" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="591" t="s">
-        <v>445</v>
-      </c>
-      <c r="B38" s="788" t="n">
+        <v>436</v>
+      </c>
+      <c r="B38" s="758" t="n">
         <v>0</v>
       </c>
       <c r="C38" s="589" t="n">
         <v>0</v>
       </c>
-      <c r="D38" s="789" t="n">
+      <c r="D38" s="759" t="n">
         <v>1</v>
       </c>
       <c r="E38" s="531" t="n">
         <f aca="false">SUM(B38:B39)+SUM(C38:C39)*2+SUM(D38:D39)*2</f>
         <v>2</v>
       </c>
-      <c r="F38" s="796" t="n">
-        <v>2</v>
-      </c>
-      <c r="G38" s="782" t="str">
+      <c r="F38" s="766" t="n">
+        <v>2</v>
+      </c>
+      <c r="G38" s="752" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!D414</f>
         <v>Janoszczyk Sławomir i Anna</v>
       </c>
       <c r="H38" s="280" t="n">
         <v>2</v>
       </c>
-      <c r="I38" s="772" t="n">
+      <c r="I38" s="534" t="n">
         <f aca="false">H38-E38</f>
         <v>0</v>
       </c>
@@ -39994,24 +39649,24 @@
         <f aca="false">'Lista braci - Reg. 2018'!B414</f>
         <v>Opole 1</v>
       </c>
-      <c r="K38" s="799"/>
+      <c r="K38" s="769"/>
     </row>
     <row r="39" s="597" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="593"/>
-      <c r="B39" s="793" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" s="794" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" s="794" t="n">
+      <c r="B39" s="763" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" s="764" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="764" t="n">
         <v>0</v>
       </c>
       <c r="E39" s="531"/>
-      <c r="F39" s="797" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="781"/>
+      <c r="F39" s="767" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" s="751"/>
       <c r="H39" s="15" t="n">
         <v>0</v>
       </c>
@@ -40020,36 +39675,36 @@
         <v>0</v>
       </c>
       <c r="J39" s="622"/>
-      <c r="K39" s="799"/>
+      <c r="K39" s="769"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="591" t="s">
-        <v>446</v>
-      </c>
-      <c r="B40" s="788" t="n">
+        <v>437</v>
+      </c>
+      <c r="B40" s="758" t="n">
         <v>0</v>
       </c>
       <c r="C40" s="589" t="n">
         <v>0</v>
       </c>
-      <c r="D40" s="789" t="n">
+      <c r="D40" s="759" t="n">
         <v>1</v>
       </c>
       <c r="E40" s="531" t="n">
         <f aca="false">SUM(B40:B41)+SUM(C40:C41)*2+SUM(D40:D41)*2</f>
         <v>2</v>
       </c>
-      <c r="F40" s="796" t="n">
-        <v>2</v>
-      </c>
-      <c r="G40" s="782" t="str">
+      <c r="F40" s="766" t="n">
+        <v>2</v>
+      </c>
+      <c r="G40" s="752" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!D415</f>
         <v>Śledzik Andrzej i Dorota</v>
       </c>
       <c r="H40" s="280" t="n">
         <v>2</v>
       </c>
-      <c r="I40" s="772" t="n">
+      <c r="I40" s="534" t="n">
         <f aca="false">H40-E40</f>
         <v>0</v>
       </c>
@@ -40060,20 +39715,20 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="593"/>
-      <c r="B41" s="793" t="n">
-        <v>0</v>
-      </c>
-      <c r="C41" s="794" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" s="794" t="n">
+      <c r="B41" s="763" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" s="764" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="764" t="n">
         <v>0</v>
       </c>
       <c r="E41" s="531"/>
-      <c r="F41" s="797" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" s="781"/>
+      <c r="F41" s="767" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" s="751"/>
       <c r="H41" s="15" t="n">
         <v>0</v>
       </c>
@@ -40085,22 +39740,22 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="591" t="s">
-        <v>447</v>
-      </c>
-      <c r="B42" s="788" t="n">
+        <v>438</v>
+      </c>
+      <c r="B42" s="758" t="n">
         <v>0</v>
       </c>
       <c r="C42" s="589" t="n">
         <v>0</v>
       </c>
-      <c r="D42" s="789" t="n">
+      <c r="D42" s="759" t="n">
         <v>1</v>
       </c>
       <c r="E42" s="531" t="n">
         <f aca="false">SUM(B42:B43)+SUM(C42:C43)*2+SUM(D42:D43)*2</f>
         <v>2</v>
       </c>
-      <c r="F42" s="796" t="n">
+      <c r="F42" s="766" t="n">
         <v>2</v>
       </c>
       <c r="G42" s="533" t="str">
@@ -40110,7 +39765,7 @@
       <c r="H42" s="280" t="n">
         <v>2</v>
       </c>
-      <c r="I42" s="772" t="n">
+      <c r="I42" s="534" t="n">
         <f aca="false">H42-E42</f>
         <v>0</v>
       </c>
@@ -40121,20 +39776,20 @@
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="593"/>
-      <c r="B43" s="793" t="n">
-        <v>0</v>
-      </c>
-      <c r="C43" s="794" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" s="794" t="n">
+      <c r="B43" s="763" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" s="764" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="764" t="n">
         <v>0</v>
       </c>
       <c r="E43" s="531"/>
-      <c r="F43" s="797" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" s="781"/>
+      <c r="F43" s="767" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="751"/>
       <c r="H43" s="15" t="n">
         <v>0</v>
       </c>
@@ -40146,32 +39801,32 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="591" t="s">
-        <v>448</v>
-      </c>
-      <c r="B44" s="788" t="n">
+        <v>439</v>
+      </c>
+      <c r="B44" s="758" t="n">
         <v>0</v>
       </c>
       <c r="C44" s="589" t="n">
         <v>0</v>
       </c>
-      <c r="D44" s="789" t="n">
+      <c r="D44" s="759" t="n">
         <v>1</v>
       </c>
       <c r="E44" s="531" t="n">
         <f aca="false">SUM(B44:B45)+SUM(C44:C45)*2+SUM(D44:D45)*2</f>
         <v>2</v>
       </c>
-      <c r="F44" s="796" t="n">
-        <v>2</v>
-      </c>
-      <c r="G44" s="782" t="str">
+      <c r="F44" s="766" t="n">
+        <v>2</v>
+      </c>
+      <c r="G44" s="752" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!D493</f>
         <v>Zawiślak Marek i Katarzyna</v>
       </c>
       <c r="H44" s="280" t="n">
         <v>2</v>
       </c>
-      <c r="I44" s="772" t="n">
+      <c r="I44" s="534" t="n">
         <f aca="false">H44-E44</f>
         <v>0</v>
       </c>
@@ -40182,20 +39837,20 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="593"/>
-      <c r="B45" s="793" t="n">
-        <v>0</v>
-      </c>
-      <c r="C45" s="794" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" s="794" t="n">
+      <c r="B45" s="763" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" s="764" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" s="764" t="n">
         <v>0</v>
       </c>
       <c r="E45" s="531"/>
-      <c r="F45" s="797" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="781"/>
+      <c r="F45" s="767" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="751"/>
       <c r="H45" s="15" t="n">
         <v>0</v>
       </c>
@@ -40207,22 +39862,22 @@
     </row>
     <row r="46" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="591" t="s">
-        <v>449</v>
-      </c>
-      <c r="B46" s="802" t="n">
-        <v>0</v>
-      </c>
-      <c r="C46" s="803" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" s="804" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" s="805" t="n">
+        <v>440</v>
+      </c>
+      <c r="B46" s="772" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" s="773" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" s="774" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" s="775" t="n">
         <f aca="false">SUM(B46:B47)+SUM(C46:C47)*2+SUM(D46:D47)</f>
         <v>1</v>
       </c>
-      <c r="F46" s="790" t="n">
+      <c r="F46" s="760" t="n">
         <v>2</v>
       </c>
       <c r="G46" s="701" t="str">
@@ -40236,27 +39891,27 @@
         <f aca="false">H46-E46</f>
         <v>1</v>
       </c>
-      <c r="J46" s="792" t="str">
+      <c r="J46" s="762" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!B505</f>
         <v>Bronowice 10</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="593"/>
-      <c r="B47" s="806" t="n">
-        <v>0</v>
-      </c>
-      <c r="C47" s="807" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" s="807" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" s="805"/>
-      <c r="F47" s="795" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" s="781"/>
+      <c r="B47" s="776" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" s="777" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" s="777" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" s="775"/>
+      <c r="F47" s="765" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="751"/>
       <c r="H47" s="48" t="n">
         <v>0</v>
       </c>
@@ -40268,18 +39923,18 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="591" t="s">
-        <v>450</v>
-      </c>
-      <c r="B48" s="802" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" s="803" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" s="804" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" s="805" t="n">
+        <v>441</v>
+      </c>
+      <c r="B48" s="772" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" s="773" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" s="774" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" s="775" t="n">
         <f aca="false">SUM(B48:B49)+SUM(C48:C49)*2+SUM(D48:D49)</f>
         <v>2</v>
       </c>
@@ -40297,27 +39952,27 @@
         <f aca="false">H48-E48</f>
         <v>-1</v>
       </c>
-      <c r="J48" s="792" t="str">
+      <c r="J48" s="762" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!B506</f>
         <v>Bronowice 10</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="593"/>
-      <c r="B49" s="806" t="n">
-        <v>1</v>
-      </c>
-      <c r="C49" s="807" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" s="807" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" s="805"/>
-      <c r="F49" s="795" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" s="781"/>
+      <c r="B49" s="776" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" s="777" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" s="777" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" s="775"/>
+      <c r="F49" s="765" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" s="751"/>
       <c r="H49" s="48" t="n">
         <v>0</v>
       </c>
@@ -40329,22 +39984,22 @@
     </row>
     <row r="50" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="591" t="s">
-        <v>451</v>
-      </c>
-      <c r="B50" s="788" t="n">
+        <v>442</v>
+      </c>
+      <c r="B50" s="758" t="n">
         <v>0</v>
       </c>
       <c r="C50" s="589" t="n">
         <v>0</v>
       </c>
-      <c r="D50" s="789" t="n">
+      <c r="D50" s="759" t="n">
         <v>1</v>
       </c>
       <c r="E50" s="531" t="n">
         <f aca="false">SUM(B50:B51)+SUM(C50:C51)*2+SUM(D50:D51)*2</f>
         <v>2</v>
       </c>
-      <c r="F50" s="796" t="n">
+      <c r="F50" s="766" t="n">
         <v>2</v>
       </c>
       <c r="G50" s="579" t="str">
@@ -40354,7 +40009,7 @@
       <c r="H50" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="I50" s="772" t="n">
+      <c r="I50" s="534" t="n">
         <f aca="false">H50-E50</f>
         <v>0</v>
       </c>
@@ -40365,20 +40020,20 @@
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="593"/>
-      <c r="B51" s="793" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" s="794" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" s="794" t="n">
+      <c r="B51" s="763" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" s="764" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" s="764" t="n">
         <v>0</v>
       </c>
       <c r="E51" s="531"/>
-      <c r="F51" s="797" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" s="781"/>
+      <c r="F51" s="767" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" s="751"/>
       <c r="H51" s="48" t="n">
         <v>0</v>
       </c>
@@ -40390,32 +40045,32 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="591" t="s">
-        <v>452</v>
-      </c>
-      <c r="B52" s="788" t="n">
+        <v>443</v>
+      </c>
+      <c r="B52" s="758" t="n">
         <v>0</v>
       </c>
       <c r="C52" s="589" t="n">
         <v>0</v>
       </c>
-      <c r="D52" s="789" t="n">
+      <c r="D52" s="759" t="n">
         <v>1</v>
       </c>
       <c r="E52" s="531" t="n">
         <f aca="false">SUM(B52:B53)+SUM(C52:C53)*2+SUM(D52:D53)*2</f>
         <v>2</v>
       </c>
-      <c r="F52" s="796" t="n">
-        <v>2</v>
-      </c>
-      <c r="G52" s="782" t="str">
+      <c r="F52" s="766" t="n">
+        <v>2</v>
+      </c>
+      <c r="G52" s="752" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!D509</f>
         <v>Puzniak Damian i Paulina</v>
       </c>
       <c r="H52" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="I52" s="772" t="n">
+      <c r="I52" s="534" t="n">
         <f aca="false">H52-E52</f>
         <v>0</v>
       </c>
@@ -40426,18 +40081,18 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="593"/>
-      <c r="B53" s="793" t="n">
-        <v>0</v>
-      </c>
-      <c r="C53" s="794" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" s="794" t="n">
+      <c r="B53" s="763" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" s="764" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" s="764" t="n">
         <v>0</v>
       </c>
       <c r="E53" s="531"/>
-      <c r="F53" s="795"/>
-      <c r="G53" s="781"/>
+      <c r="F53" s="765"/>
+      <c r="G53" s="751"/>
       <c r="H53" s="48"/>
       <c r="I53" s="561" t="n">
         <f aca="false">H53-E53</f>
@@ -40447,25 +40102,25 @@
     </row>
     <row r="54" s="597" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="591" t="s">
-        <v>453</v>
-      </c>
-      <c r="B54" s="808" t="n">
-        <v>1</v>
-      </c>
-      <c r="C54" s="809" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" s="810" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" s="805" t="n">
+        <v>444</v>
+      </c>
+      <c r="B54" s="778" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" s="779" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" s="780" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" s="775" t="n">
         <f aca="false">SUM(B54:B55)+SUM(C54:C55)*2+SUM(D54:D55)</f>
         <v>2</v>
       </c>
       <c r="F54" s="582" t="n">
         <v>1</v>
       </c>
-      <c r="G54" s="791" t="str">
+      <c r="G54" s="761" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!D298</f>
         <v>Kusyk Ewa</v>
       </c>
@@ -40476,28 +40131,28 @@
         <f aca="false">H54-E54</f>
         <v>-1</v>
       </c>
-      <c r="J54" s="792" t="str">
+      <c r="J54" s="762" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!B298</f>
         <v>Lublin Św. Agnieszka 1</v>
       </c>
-      <c r="K54" s="747"/>
+      <c r="K54" s="781"/>
     </row>
     <row r="55" s="597" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="593"/>
-      <c r="B55" s="793" t="n">
-        <v>1</v>
-      </c>
-      <c r="C55" s="794" t="n">
-        <v>0</v>
-      </c>
-      <c r="D55" s="794" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" s="805"/>
-      <c r="F55" s="811" t="n">
-        <v>1</v>
-      </c>
-      <c r="G55" s="781" t="str">
+      <c r="B55" s="763" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" s="764" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" s="764" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" s="775"/>
+      <c r="F55" s="782" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" s="751" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!D302</f>
         <v>Świtacz Elżbieta</v>
       </c>
@@ -40512,13 +40167,13 @@
         <f aca="false">'Lista braci - Reg. 2018'!B302</f>
         <v>Lublin Św. Agnieszka 1</v>
       </c>
-      <c r="K55" s="785" t="s">
+      <c r="K55" s="755" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="56" s="597" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="591" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="B56" s="529" t="n">
         <v>1</v>
@@ -40526,24 +40181,24 @@
       <c r="C56" s="589" t="n">
         <v>0</v>
       </c>
-      <c r="D56" s="789" t="n">
+      <c r="D56" s="759" t="n">
         <v>0</v>
       </c>
       <c r="E56" s="531" t="n">
         <f aca="false">SUM(B56:B58)+SUM(C56:C58)*2+SUM(D56:D58)</f>
         <v>3</v>
       </c>
-      <c r="F56" s="812" t="n">
-        <v>1</v>
-      </c>
-      <c r="G56" s="782" t="str">
+      <c r="F56" s="783" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" s="752" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!D275</f>
         <v>Podsiadło Kasia</v>
       </c>
       <c r="H56" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="I56" s="776" t="n">
+      <c r="I56" s="746" t="n">
         <f aca="false">H56-E56</f>
         <v>-2</v>
       </c>
@@ -40551,26 +40206,26 @@
         <f aca="false">'Lista braci - Reg. 2018'!B275</f>
         <v>Lublin Salezjanie 1</v>
       </c>
-      <c r="K56" s="787" t="s">
+      <c r="K56" s="757" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="57" s="597" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="591"/>
-      <c r="B57" s="813" t="n">
-        <v>1</v>
-      </c>
-      <c r="C57" s="783" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" s="814" t="n">
+      <c r="B57" s="784" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" s="753" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" s="785" t="n">
         <v>0</v>
       </c>
       <c r="E57" s="531"/>
-      <c r="F57" s="815" t="n">
-        <v>1</v>
-      </c>
-      <c r="G57" s="816" t="str">
+      <c r="F57" s="786" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="787" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!D276</f>
         <v>Rojek Anna</v>
       </c>
@@ -40581,11 +40236,11 @@
         <f aca="false">H57-E57</f>
         <v>1</v>
       </c>
-      <c r="J57" s="779" t="str">
+      <c r="J57" s="749" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!B276</f>
         <v>Lublin Salezjanie 1</v>
       </c>
-      <c r="K57" s="787" t="s">
+      <c r="K57" s="757" t="s">
         <v>386</v>
       </c>
     </row>
@@ -40594,21 +40249,21 @@
       <c r="B58" s="538" t="n">
         <v>1</v>
       </c>
-      <c r="C58" s="794" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" s="794" t="n">
+      <c r="C58" s="764" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" s="764" t="n">
         <v>0</v>
       </c>
       <c r="E58" s="531"/>
-      <c r="F58" s="811" t="n">
-        <v>1</v>
-      </c>
-      <c r="G58" s="817" t="str">
+      <c r="F58" s="782" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" s="788" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!D510</f>
         <v>Borsuk Maria - od soboty</v>
       </c>
-      <c r="H58" s="818" t="n">
+      <c r="H58" s="48" t="n">
         <v>1</v>
       </c>
       <c r="I58" s="561" t="n">
@@ -40619,28 +40274,28 @@
         <f aca="false">'Lista braci - Reg. 2018'!B510</f>
         <v>Królewska 13</v>
       </c>
-      <c r="K58" s="787" t="s">
+      <c r="K58" s="757" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="59" s="518" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="594" t="s">
-        <v>455</v>
-      </c>
-      <c r="B59" s="819" t="n">
-        <v>1</v>
-      </c>
-      <c r="C59" s="789" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" s="789" t="n">
+        <v>446</v>
+      </c>
+      <c r="B59" s="789" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" s="759" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" s="759" t="n">
         <v>0</v>
       </c>
       <c r="E59" s="648" t="n">
         <f aca="false">SUM(B59:B61)+SUM(C59:C61)*2+SUM(D59:D61)</f>
         <v>3</v>
       </c>
-      <c r="F59" s="820" t="n">
+      <c r="F59" s="790" t="n">
         <v>1</v>
       </c>
       <c r="G59" s="91" t="str">
@@ -40654,25 +40309,25 @@
         <f aca="false">H59-E59</f>
         <v>-2</v>
       </c>
-      <c r="J59" s="792" t="str">
+      <c r="J59" s="762" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!B425</f>
         <v>Opole 2</v>
       </c>
-      <c r="K59" s="762"/>
+      <c r="K59" s="733"/>
     </row>
     <row r="60" s="518" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="596"/>
-      <c r="B60" s="821" t="n">
-        <v>1</v>
-      </c>
-      <c r="C60" s="822" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" s="822" t="n">
+      <c r="B60" s="791" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" s="792" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" s="792" t="n">
         <v>0</v>
       </c>
       <c r="E60" s="648"/>
-      <c r="F60" s="823" t="n">
+      <c r="F60" s="793" t="n">
         <v>1</v>
       </c>
       <c r="G60" s="38" t="str">
@@ -40686,25 +40341,25 @@
         <f aca="false">H60-E60</f>
         <v>1</v>
       </c>
-      <c r="J60" s="801" t="str">
+      <c r="J60" s="771" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!B427</f>
         <v>Opole 2</v>
       </c>
-      <c r="K60" s="747"/>
+      <c r="K60" s="781"/>
     </row>
     <row r="61" s="518" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="598"/>
-      <c r="B61" s="824" t="n">
-        <v>1</v>
-      </c>
-      <c r="C61" s="794" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" s="794" t="n">
+      <c r="B61" s="794" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" s="764" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" s="764" t="n">
         <v>0</v>
       </c>
       <c r="E61" s="648"/>
-      <c r="F61" s="823" t="n">
+      <c r="F61" s="793" t="n">
         <v>1</v>
       </c>
       <c r="G61" s="38" t="str">
@@ -40718,59 +40373,59 @@
         <f aca="false">H61-E61</f>
         <v>1</v>
       </c>
-      <c r="J61" s="801" t="str">
+      <c r="J61" s="771" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!B492</f>
         <v>Zamość Katedralna 2</v>
       </c>
-      <c r="K61" s="825" t="s">
+      <c r="K61" s="795" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="62" s="518" customFormat="true" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="588" t="s">
-        <v>456</v>
-      </c>
-      <c r="B62" s="826" t="n">
-        <v>1</v>
-      </c>
-      <c r="C62" s="810" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" s="810" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" s="827" t="n">
+        <v>447</v>
+      </c>
+      <c r="B62" s="796" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" s="780" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" s="780" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" s="797" t="n">
         <f aca="false">SUM(B62:B64)+SUM(C62:C64)*2+SUM(D62:D64)</f>
         <v>3</v>
       </c>
-      <c r="F62" s="828" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" s="829"/>
-      <c r="H62" s="770" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" s="776" t="n">
+      <c r="F62" s="798" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" s="799"/>
+      <c r="H62" s="741" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" s="746" t="n">
         <f aca="false">H62-E62</f>
         <v>-3</v>
       </c>
-      <c r="J62" s="830"/>
-      <c r="K62" s="787" t="s">
+      <c r="J62" s="800"/>
+      <c r="K62" s="757" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="63" s="518" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="591"/>
-      <c r="B63" s="821" t="n">
-        <v>1</v>
-      </c>
-      <c r="C63" s="822" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" s="822" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" s="827"/>
+      <c r="B63" s="791" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" s="792" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" s="792" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" s="797"/>
       <c r="F63" s="714" t="n">
         <v>1</v>
       </c>
@@ -40785,32 +40440,32 @@
         <f aca="false">H63-E63</f>
         <v>1</v>
       </c>
-      <c r="J63" s="831" t="str">
+      <c r="J63" s="801" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!B426</f>
         <v>Opole 2</v>
       </c>
-      <c r="K63" s="787" t="s">
+      <c r="K63" s="757" t="s">
         <v>386</v>
       </c>
-      <c r="N63" s="763"/>
-      <c r="O63" s="764"/>
+      <c r="N63" s="734"/>
+      <c r="O63" s="735"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="598"/>
-      <c r="B64" s="832" t="n">
-        <v>1</v>
-      </c>
-      <c r="C64" s="833" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" s="833" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" s="827"/>
-      <c r="F64" s="834" t="n">
-        <v>1</v>
-      </c>
-      <c r="G64" s="835" t="str">
+      <c r="B64" s="802" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" s="803" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" s="803" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" s="797"/>
+      <c r="F64" s="804" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" s="805" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!D368</f>
         <v>Topyła Mariusz</v>
       </c>
@@ -40821,29 +40476,29 @@
         <f aca="false">H64-E64</f>
         <v>1</v>
       </c>
-      <c r="J64" s="836" t="str">
+      <c r="J64" s="806" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!B368</f>
         <v>Lubartów 3</v>
       </c>
-      <c r="K64" s="787" t="s">
+      <c r="K64" s="757" t="s">
         <v>387</v>
       </c>
-      <c r="L64" s="762"/>
-      <c r="M64" s="762"/>
-      <c r="N64" s="762"/>
-      <c r="O64" s="762"/>
+      <c r="L64" s="733"/>
+      <c r="M64" s="733"/>
+      <c r="N64" s="733"/>
+      <c r="O64" s="733"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="594" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="B65" s="529" t="n">
         <v>1</v>
       </c>
-      <c r="C65" s="789" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" s="789" t="n">
+      <c r="C65" s="759" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" s="759" t="n">
         <v>0</v>
       </c>
       <c r="E65" s="531" t="n">
@@ -40860,7 +40515,7 @@
       <c r="H65" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="I65" s="837" t="n">
+      <c r="I65" s="807" t="n">
         <f aca="false">H65-E65</f>
         <v>-1</v>
       </c>
@@ -40877,7 +40532,7 @@
       <c r="C66" s="558" t="n">
         <v>1</v>
       </c>
-      <c r="D66" s="794" t="n">
+      <c r="D66" s="764" t="n">
         <v>0</v>
       </c>
       <c r="E66" s="531"/>
@@ -40888,7 +40543,7 @@
       <c r="H66" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="I66" s="838" t="n">
+      <c r="I66" s="808" t="n">
         <f aca="false">H66-E66</f>
         <v>0</v>
       </c>
@@ -40896,15 +40551,15 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="594" t="s">
-        <v>458</v>
-      </c>
-      <c r="B67" s="839" t="n">
-        <v>1</v>
-      </c>
-      <c r="C67" s="840" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" s="840" t="n">
+        <v>449</v>
+      </c>
+      <c r="B67" s="809" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" s="810" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" s="810" t="n">
         <v>0</v>
       </c>
       <c r="E67" s="531" t="n">
@@ -40921,7 +40576,7 @@
       <c r="H67" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="I67" s="837" t="n">
+      <c r="I67" s="807" t="n">
         <f aca="false">H67-E67</f>
         <v>-1</v>
       </c>
@@ -40935,35 +40590,35 @@
       <c r="B68" s="550" t="n">
         <v>1</v>
       </c>
-      <c r="C68" s="822" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" s="822" t="n">
+      <c r="C68" s="792" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" s="792" t="n">
         <v>0</v>
       </c>
       <c r="E68" s="531"/>
-      <c r="F68" s="841" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" s="778"/>
+      <c r="F68" s="811" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" s="748"/>
       <c r="H68" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="I68" s="842" t="n">
+      <c r="I68" s="812" t="n">
         <f aca="false">H68-E68</f>
         <v>0</v>
       </c>
-      <c r="J68" s="831"/>
+      <c r="J68" s="801"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="598"/>
       <c r="B69" s="538" t="n">
         <v>1</v>
       </c>
-      <c r="C69" s="794" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" s="794" t="n">
+      <c r="C69" s="764" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" s="764" t="n">
         <v>0</v>
       </c>
       <c r="E69" s="531"/>
@@ -40974,7 +40629,7 @@
       <c r="H69" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="I69" s="838" t="n">
+      <c r="I69" s="808" t="n">
         <f aca="false">H69-E69</f>
         <v>0</v>
       </c>
@@ -40982,15 +40637,15 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="594" t="s">
-        <v>459</v>
-      </c>
-      <c r="B70" s="839" t="n">
-        <v>1</v>
-      </c>
-      <c r="C70" s="840" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" s="840" t="n">
+        <v>450</v>
+      </c>
+      <c r="B70" s="809" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" s="810" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" s="810" t="n">
         <v>0</v>
       </c>
       <c r="E70" s="531" t="n">
@@ -41007,7 +40662,7 @@
       <c r="H70" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="I70" s="837" t="n">
+      <c r="I70" s="807" t="n">
         <f aca="false">H70-E70</f>
         <v>-1</v>
       </c>
@@ -41021,35 +40676,35 @@
       <c r="B71" s="550" t="n">
         <v>1</v>
       </c>
-      <c r="C71" s="822" t="n">
-        <v>0</v>
-      </c>
-      <c r="D71" s="822" t="n">
+      <c r="C71" s="792" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" s="792" t="n">
         <v>0</v>
       </c>
       <c r="E71" s="531"/>
-      <c r="F71" s="841" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" s="778"/>
+      <c r="F71" s="811" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" s="748"/>
       <c r="H71" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="I71" s="842" t="n">
+      <c r="I71" s="812" t="n">
         <f aca="false">H71-E71</f>
         <v>0</v>
       </c>
-      <c r="J71" s="831"/>
+      <c r="J71" s="801"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="598"/>
       <c r="B72" s="538" t="n">
         <v>1</v>
       </c>
-      <c r="C72" s="794" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" s="794" t="n">
+      <c r="C72" s="764" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" s="764" t="n">
         <v>0</v>
       </c>
       <c r="E72" s="531"/>
@@ -41060,7 +40715,7 @@
       <c r="H72" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="I72" s="838" t="n">
+      <c r="I72" s="808" t="n">
         <f aca="false">H72-E72</f>
         <v>0</v>
       </c>
@@ -41068,15 +40723,15 @@
     </row>
     <row r="73" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="594" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="B73" s="529" t="n">
         <v>1</v>
       </c>
-      <c r="C73" s="789" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" s="789" t="n">
+      <c r="C73" s="759" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" s="759" t="n">
         <v>0</v>
       </c>
       <c r="E73" s="531" t="n">
@@ -41093,7 +40748,7 @@
       <c r="H73" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="I73" s="837" t="n">
+      <c r="I73" s="807" t="n">
         <f aca="false">H73-E73</f>
         <v>-1</v>
       </c>
@@ -41108,10 +40763,10 @@
       <c r="B74" s="550" t="n">
         <v>1</v>
       </c>
-      <c r="C74" s="822" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" s="822" t="n">
+      <c r="C74" s="792" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" s="792" t="n">
         <v>0</v>
       </c>
       <c r="E74" s="531"/>
@@ -41122,11 +40777,11 @@
       <c r="H74" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="I74" s="842" t="n">
+      <c r="I74" s="812" t="n">
         <f aca="false">H74-E74</f>
         <v>0</v>
       </c>
-      <c r="J74" s="831"/>
+      <c r="J74" s="801"/>
       <c r="K74" s="517"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41134,10 +40789,10 @@
       <c r="B75" s="538" t="n">
         <v>1</v>
       </c>
-      <c r="C75" s="794" t="n">
-        <v>0</v>
-      </c>
-      <c r="D75" s="794" t="n">
+      <c r="C75" s="764" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" s="764" t="n">
         <v>0</v>
       </c>
       <c r="E75" s="531"/>
@@ -41148,7 +40803,7 @@
       <c r="H75" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="I75" s="838" t="n">
+      <c r="I75" s="808" t="n">
         <f aca="false">H75-E75</f>
         <v>0</v>
       </c>
@@ -41157,15 +40812,15 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="594" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="B76" s="529" t="n">
         <v>1</v>
       </c>
-      <c r="C76" s="789" t="n">
-        <v>0</v>
-      </c>
-      <c r="D76" s="789" t="n">
+      <c r="C76" s="759" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" s="759" t="n">
         <v>0</v>
       </c>
       <c r="E76" s="531" t="n">
@@ -41182,7 +40837,7 @@
       <c r="H76" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="I76" s="837" t="n">
+      <c r="I76" s="807" t="n">
         <f aca="false">H76-E76</f>
         <v>-1</v>
       </c>
@@ -41197,10 +40852,10 @@
       <c r="B77" s="550" t="n">
         <v>1</v>
       </c>
-      <c r="C77" s="822" t="n">
-        <v>0</v>
-      </c>
-      <c r="D77" s="822" t="n">
+      <c r="C77" s="792" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" s="792" t="n">
         <v>0</v>
       </c>
       <c r="E77" s="531"/>
@@ -41211,11 +40866,11 @@
       <c r="H77" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="I77" s="842" t="n">
+      <c r="I77" s="812" t="n">
         <f aca="false">H77-E77</f>
         <v>0</v>
       </c>
-      <c r="J77" s="831"/>
+      <c r="J77" s="801"/>
       <c r="K77" s="517"/>
     </row>
     <row r="78" s="518" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41223,10 +40878,10 @@
       <c r="B78" s="538" t="n">
         <v>1</v>
       </c>
-      <c r="C78" s="794" t="n">
-        <v>0</v>
-      </c>
-      <c r="D78" s="794" t="n">
+      <c r="C78" s="764" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" s="764" t="n">
         <v>0</v>
       </c>
       <c r="E78" s="531"/>
@@ -41237,7 +40892,7 @@
       <c r="H78" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="I78" s="838" t="n">
+      <c r="I78" s="808" t="n">
         <f aca="false">H78-E78</f>
         <v>0</v>
       </c>
@@ -41246,15 +40901,15 @@
     </row>
     <row r="79" s="518" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="594" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="B79" s="529" t="n">
         <v>1</v>
       </c>
-      <c r="C79" s="789" t="n">
-        <v>0</v>
-      </c>
-      <c r="D79" s="789" t="n">
+      <c r="C79" s="759" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" s="759" t="n">
         <v>0</v>
       </c>
       <c r="E79" s="531" t="n">
@@ -41271,7 +40926,7 @@
       <c r="H79" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="I79" s="837" t="n">
+      <c r="I79" s="807" t="n">
         <f aca="false">H79-E79</f>
         <v>-1</v>
       </c>
@@ -41286,10 +40941,10 @@
       <c r="B80" s="550" t="n">
         <v>1</v>
       </c>
-      <c r="C80" s="822" t="n">
-        <v>0</v>
-      </c>
-      <c r="D80" s="822" t="n">
+      <c r="C80" s="792" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" s="792" t="n">
         <v>0</v>
       </c>
       <c r="E80" s="531"/>
@@ -41300,11 +40955,11 @@
       <c r="H80" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="I80" s="842" t="n">
+      <c r="I80" s="812" t="n">
         <f aca="false">H80-E80</f>
         <v>0</v>
       </c>
-      <c r="J80" s="831"/>
+      <c r="J80" s="801"/>
       <c r="K80" s="517"/>
     </row>
     <row r="81" s="518" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41312,10 +40967,10 @@
       <c r="B81" s="538" t="n">
         <v>1</v>
       </c>
-      <c r="C81" s="794" t="n">
-        <v>0</v>
-      </c>
-      <c r="D81" s="794" t="n">
+      <c r="C81" s="764" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" s="764" t="n">
         <v>0</v>
       </c>
       <c r="E81" s="531"/>
@@ -41326,7 +40981,7 @@
       <c r="H81" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="I81" s="838" t="n">
+      <c r="I81" s="808" t="n">
         <f aca="false">H81-E81</f>
         <v>0</v>
       </c>
@@ -41335,15 +40990,15 @@
     </row>
     <row r="82" s="518" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="594" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="B82" s="529" t="n">
         <v>1</v>
       </c>
-      <c r="C82" s="789" t="n">
-        <v>0</v>
-      </c>
-      <c r="D82" s="789" t="n">
+      <c r="C82" s="759" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" s="759" t="n">
         <v>0</v>
       </c>
       <c r="E82" s="531" t="n">
@@ -41360,7 +41015,7 @@
       <c r="H82" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="I82" s="837" t="n">
+      <c r="I82" s="807" t="n">
         <f aca="false">H82-E82</f>
         <v>-1</v>
       </c>
@@ -41375,10 +41030,10 @@
       <c r="B83" s="550" t="n">
         <v>1</v>
       </c>
-      <c r="C83" s="822" t="n">
-        <v>0</v>
-      </c>
-      <c r="D83" s="822" t="n">
+      <c r="C83" s="792" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" s="792" t="n">
         <v>0</v>
       </c>
       <c r="E83" s="531"/>
@@ -41389,11 +41044,11 @@
       <c r="H83" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="I83" s="842" t="n">
+      <c r="I83" s="812" t="n">
         <f aca="false">H83-E83</f>
         <v>0</v>
       </c>
-      <c r="J83" s="831"/>
+      <c r="J83" s="801"/>
       <c r="K83" s="517"/>
     </row>
     <row r="84" s="518" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41401,21 +41056,21 @@
       <c r="B84" s="538" t="n">
         <v>1</v>
       </c>
-      <c r="C84" s="794" t="n">
-        <v>0</v>
-      </c>
-      <c r="D84" s="794" t="n">
+      <c r="C84" s="764" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" s="764" t="n">
         <v>0</v>
       </c>
       <c r="E84" s="531"/>
       <c r="F84" s="624" t="n">
         <v>0</v>
       </c>
-      <c r="G84" s="835"/>
+      <c r="G84" s="805"/>
       <c r="H84" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="I84" s="838" t="n">
+      <c r="I84" s="808" t="n">
         <f aca="false">H84-E84</f>
         <v>0</v>
       </c>
@@ -41424,15 +41079,15 @@
     </row>
     <row r="85" s="518" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="594" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="B85" s="529" t="n">
         <v>1</v>
       </c>
-      <c r="C85" s="789" t="n">
-        <v>0</v>
-      </c>
-      <c r="D85" s="789" t="n">
+      <c r="C85" s="759" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" s="759" t="n">
         <v>0</v>
       </c>
       <c r="E85" s="531" t="n">
@@ -41449,7 +41104,7 @@
       <c r="H85" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="I85" s="837" t="n">
+      <c r="I85" s="807" t="n">
         <f aca="false">H85-E85</f>
         <v>-1</v>
       </c>
@@ -41467,18 +41122,18 @@
       <c r="C86" s="558" t="n">
         <v>1</v>
       </c>
-      <c r="D86" s="794" t="n">
+      <c r="D86" s="764" t="n">
         <v>0</v>
       </c>
       <c r="E86" s="531"/>
       <c r="F86" s="540" t="n">
         <v>0</v>
       </c>
-      <c r="G86" s="835"/>
+      <c r="G86" s="805"/>
       <c r="H86" s="373" t="n">
         <v>0</v>
       </c>
-      <c r="I86" s="838" t="n">
+      <c r="I86" s="808" t="n">
         <f aca="false">H86-E86</f>
         <v>0</v>
       </c>
@@ -41487,15 +41142,15 @@
     </row>
     <row r="87" s="518" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="594" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="B87" s="529" t="n">
         <v>1</v>
       </c>
-      <c r="C87" s="789" t="n">
-        <v>0</v>
-      </c>
-      <c r="D87" s="789" t="n">
+      <c r="C87" s="759" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" s="759" t="n">
         <v>0</v>
       </c>
       <c r="E87" s="531" t="n">
@@ -41512,7 +41167,7 @@
       <c r="H87" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="I87" s="837" t="n">
+      <c r="I87" s="807" t="n">
         <f aca="false">H87-E87</f>
         <v>-2</v>
       </c>
@@ -41527,10 +41182,10 @@
       <c r="B88" s="550" t="n">
         <v>1</v>
       </c>
-      <c r="C88" s="822" t="n">
-        <v>0</v>
-      </c>
-      <c r="D88" s="822" t="n">
+      <c r="C88" s="792" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" s="792" t="n">
         <v>0</v>
       </c>
       <c r="E88" s="531"/>
@@ -41541,11 +41196,11 @@
       <c r="H88" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="I88" s="842" t="n">
+      <c r="I88" s="812" t="n">
         <f aca="false">H88-E88</f>
         <v>0</v>
       </c>
-      <c r="J88" s="831"/>
+      <c r="J88" s="801"/>
       <c r="K88" s="517"/>
     </row>
     <row r="89" s="518" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41556,18 +41211,18 @@
       <c r="C89" s="538" t="n">
         <v>1</v>
       </c>
-      <c r="D89" s="794" t="n">
+      <c r="D89" s="764" t="n">
         <v>0</v>
       </c>
       <c r="E89" s="531"/>
       <c r="F89" s="624" t="n">
         <v>0</v>
       </c>
-      <c r="G89" s="835"/>
+      <c r="G89" s="805"/>
       <c r="H89" s="373" t="n">
         <v>0</v>
       </c>
-      <c r="I89" s="838" t="n">
+      <c r="I89" s="808" t="n">
         <f aca="false">H89-E89</f>
         <v>0</v>
       </c>
@@ -41576,15 +41231,15 @@
     </row>
     <row r="90" s="518" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="594" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="B90" s="529" t="n">
         <v>1</v>
       </c>
-      <c r="C90" s="789" t="n">
-        <v>0</v>
-      </c>
-      <c r="D90" s="789" t="n">
+      <c r="C90" s="759" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" s="759" t="n">
         <v>0</v>
       </c>
       <c r="E90" s="531" t="n">
@@ -41601,7 +41256,7 @@
       <c r="H90" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="I90" s="837" t="n">
+      <c r="I90" s="807" t="n">
         <f aca="false">H90-E90</f>
         <v>-2</v>
       </c>
@@ -41616,10 +41271,10 @@
       <c r="B91" s="550" t="n">
         <v>1</v>
       </c>
-      <c r="C91" s="822" t="n">
-        <v>0</v>
-      </c>
-      <c r="D91" s="843" t="n">
+      <c r="C91" s="792" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" s="813" t="n">
         <v>0</v>
       </c>
       <c r="E91" s="531"/>
@@ -41630,11 +41285,11 @@
       <c r="H91" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="I91" s="842" t="n">
+      <c r="I91" s="812" t="n">
         <f aca="false">H91-E91</f>
         <v>0</v>
       </c>
-      <c r="J91" s="831"/>
+      <c r="J91" s="801"/>
       <c r="K91" s="517"/>
     </row>
     <row r="92" s="518" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41645,7 +41300,7 @@
       <c r="C92" s="538" t="n">
         <v>1</v>
       </c>
-      <c r="D92" s="794" t="n">
+      <c r="D92" s="764" t="n">
         <v>0</v>
       </c>
       <c r="E92" s="531"/>
@@ -41656,24 +41311,24 @@
       <c r="H92" s="373" t="n">
         <v>0</v>
       </c>
-      <c r="I92" s="838" t="n">
+      <c r="I92" s="808" t="n">
         <f aca="false">H92-E92</f>
         <v>0</v>
       </c>
       <c r="J92" s="622"/>
-      <c r="K92" s="844"/>
+      <c r="K92" s="814"/>
     </row>
     <row r="93" s="518" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="594" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="B93" s="529" t="n">
         <v>1</v>
       </c>
-      <c r="C93" s="789" t="n">
-        <v>0</v>
-      </c>
-      <c r="D93" s="789" t="n">
+      <c r="C93" s="759" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" s="759" t="n">
         <v>0</v>
       </c>
       <c r="E93" s="531" t="n">
@@ -41683,18 +41338,18 @@
       <c r="F93" s="581" t="n">
         <v>1</v>
       </c>
-      <c r="G93" s="829" t="str">
+      <c r="G93" s="799" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!D194</f>
         <v>Wójtowicz Magda</v>
       </c>
-      <c r="H93" s="770" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" s="845" t="n">
+      <c r="H93" s="741" t="n">
+        <v>1</v>
+      </c>
+      <c r="I93" s="815" t="n">
         <f aca="false">H93-E93</f>
         <v>-3</v>
       </c>
-      <c r="J93" s="830" t="str">
+      <c r="J93" s="800" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!B194</f>
         <v>Lublin Poczekajka 6</v>
       </c>
@@ -41705,14 +41360,14 @@
       <c r="B94" s="550" t="n">
         <v>1</v>
       </c>
-      <c r="C94" s="822" t="n">
-        <v>0</v>
-      </c>
-      <c r="D94" s="822" t="n">
+      <c r="C94" s="792" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" s="792" t="n">
         <v>0</v>
       </c>
       <c r="E94" s="531"/>
-      <c r="F94" s="846" t="n">
+      <c r="F94" s="816" t="n">
         <v>1</v>
       </c>
       <c r="G94" s="553" t="str">
@@ -41722,11 +41377,11 @@
       <c r="H94" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="I94" s="842" t="n">
+      <c r="I94" s="812" t="n">
         <f aca="false">H94-E94</f>
         <v>1</v>
       </c>
-      <c r="J94" s="847" t="str">
+      <c r="J94" s="817" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!B205</f>
         <v>Lublin Poczekajka 7</v>
       </c>
@@ -41737,10 +41392,10 @@
       <c r="B95" s="550" t="n">
         <v>1</v>
       </c>
-      <c r="C95" s="822" t="n">
-        <v>0</v>
-      </c>
-      <c r="D95" s="822" t="n">
+      <c r="C95" s="792" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" s="792" t="n">
         <v>0</v>
       </c>
       <c r="E95" s="531"/>
@@ -41754,11 +41409,11 @@
       <c r="H95" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="I95" s="842" t="n">
+      <c r="I95" s="812" t="n">
         <f aca="false">H95-E95</f>
         <v>1</v>
       </c>
-      <c r="J95" s="848" t="str">
+      <c r="J95" s="818" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!B207</f>
         <v>Lublin Poczekajka 7</v>
       </c>
@@ -41769,21 +41424,21 @@
       <c r="B96" s="538" t="n">
         <v>1</v>
       </c>
-      <c r="C96" s="794" t="n">
-        <v>0</v>
-      </c>
-      <c r="D96" s="794" t="n">
+      <c r="C96" s="764" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" s="764" t="n">
         <v>0</v>
       </c>
       <c r="E96" s="531"/>
-      <c r="F96" s="849" t="n">
-        <v>0</v>
-      </c>
-      <c r="G96" s="850"/>
+      <c r="F96" s="819" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" s="820"/>
       <c r="H96" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="I96" s="838" t="n">
+      <c r="I96" s="808" t="n">
         <f aca="false">H96-E96</f>
         <v>0</v>
       </c>
@@ -41792,15 +41447,15 @@
     </row>
     <row r="97" s="518" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="588" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="B97" s="529" t="n">
         <v>1</v>
       </c>
-      <c r="C97" s="789" t="n">
-        <v>0</v>
-      </c>
-      <c r="D97" s="789" t="n">
+      <c r="C97" s="759" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" s="759" t="n">
         <v>0</v>
       </c>
       <c r="E97" s="531" t="n">
@@ -41817,7 +41472,7 @@
       <c r="H97" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="I97" s="837" t="n">
+      <c r="I97" s="807" t="n">
         <f aca="false">H97-E97</f>
         <v>-2</v>
       </c>
@@ -41832,10 +41487,10 @@
       <c r="B98" s="550" t="n">
         <v>1</v>
       </c>
-      <c r="C98" s="822" t="n">
-        <v>0</v>
-      </c>
-      <c r="D98" s="822" t="n">
+      <c r="C98" s="792" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" s="792" t="n">
         <v>0</v>
       </c>
       <c r="E98" s="531"/>
@@ -41846,11 +41501,11 @@
       <c r="H98" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="I98" s="842" t="n">
+      <c r="I98" s="812" t="n">
         <f aca="false">H98-E98</f>
         <v>0</v>
       </c>
-      <c r="J98" s="831"/>
+      <c r="J98" s="801"/>
       <c r="K98" s="517"/>
     </row>
     <row r="99" s="518" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41861,7 +41516,7 @@
       <c r="C99" s="538" t="n">
         <v>1</v>
       </c>
-      <c r="D99" s="794" t="n">
+      <c r="D99" s="764" t="n">
         <v>0</v>
       </c>
       <c r="E99" s="531"/>
@@ -41872,7 +41527,7 @@
       <c r="H99" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="I99" s="838" t="n">
+      <c r="I99" s="808" t="n">
         <f aca="false">H99-E99</f>
         <v>0</v>
       </c>
@@ -41881,15 +41536,15 @@
     </row>
     <row r="100" s="518" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="594" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="B100" s="529" t="n">
         <v>1</v>
       </c>
-      <c r="C100" s="789" t="n">
-        <v>0</v>
-      </c>
-      <c r="D100" s="789" t="n">
+      <c r="C100" s="759" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" s="759" t="n">
         <v>0</v>
       </c>
       <c r="E100" s="531" t="n">
@@ -41906,7 +41561,7 @@
       <c r="H100" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="I100" s="837" t="n">
+      <c r="I100" s="807" t="n">
         <f aca="false">H100-E100</f>
         <v>-2</v>
       </c>
@@ -41921,10 +41576,10 @@
       <c r="B101" s="550" t="n">
         <v>1</v>
       </c>
-      <c r="C101" s="822" t="n">
-        <v>0</v>
-      </c>
-      <c r="D101" s="822" t="n">
+      <c r="C101" s="792" t="n">
+        <v>0</v>
+      </c>
+      <c r="D101" s="792" t="n">
         <v>0</v>
       </c>
       <c r="E101" s="531"/>
@@ -41935,11 +41590,11 @@
       <c r="H101" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="I101" s="842" t="n">
+      <c r="I101" s="812" t="n">
         <f aca="false">H101-E101</f>
         <v>0</v>
       </c>
-      <c r="J101" s="831"/>
+      <c r="J101" s="801"/>
       <c r="K101" s="517"/>
     </row>
     <row r="102" s="518" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41950,18 +41605,18 @@
       <c r="C102" s="538" t="n">
         <v>1</v>
       </c>
-      <c r="D102" s="794" t="n">
+      <c r="D102" s="764" t="n">
         <v>0</v>
       </c>
       <c r="E102" s="531"/>
       <c r="F102" s="624" t="n">
         <v>0</v>
       </c>
-      <c r="G102" s="835"/>
+      <c r="G102" s="805"/>
       <c r="H102" s="373" t="n">
         <v>0</v>
       </c>
-      <c r="I102" s="838" t="n">
+      <c r="I102" s="808" t="n">
         <f aca="false">H102-E102</f>
         <v>0</v>
       </c>
@@ -41970,15 +41625,15 @@
     </row>
     <row r="103" s="518" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="594" t="s">
-        <v>470</v>
-      </c>
-      <c r="B103" s="839" t="n">
-        <v>1</v>
-      </c>
-      <c r="C103" s="840" t="n">
-        <v>0</v>
-      </c>
-      <c r="D103" s="840" t="n">
+        <v>461</v>
+      </c>
+      <c r="B103" s="809" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" s="810" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" s="810" t="n">
         <v>0</v>
       </c>
       <c r="E103" s="531" t="n">
@@ -41995,7 +41650,7 @@
       <c r="H103" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="I103" s="837" t="n">
+      <c r="I103" s="807" t="n">
         <f aca="false">H103-E103</f>
         <v>-2</v>
       </c>
@@ -42010,10 +41665,10 @@
       <c r="B104" s="550" t="n">
         <v>1</v>
       </c>
-      <c r="C104" s="822" t="n">
-        <v>0</v>
-      </c>
-      <c r="D104" s="822" t="n">
+      <c r="C104" s="792" t="n">
+        <v>0</v>
+      </c>
+      <c r="D104" s="792" t="n">
         <v>0</v>
       </c>
       <c r="E104" s="531"/>
@@ -42024,11 +41679,11 @@
       <c r="H104" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="I104" s="842" t="n">
+      <c r="I104" s="812" t="n">
         <f aca="false">H104-E104</f>
         <v>0</v>
       </c>
-      <c r="J104" s="831"/>
+      <c r="J104" s="801"/>
       <c r="K104" s="517"/>
     </row>
     <row r="105" s="518" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42039,18 +41694,18 @@
       <c r="C105" s="538" t="n">
         <v>1</v>
       </c>
-      <c r="D105" s="794" t="n">
+      <c r="D105" s="764" t="n">
         <v>0</v>
       </c>
       <c r="E105" s="531"/>
       <c r="F105" s="624" t="n">
         <v>0</v>
       </c>
-      <c r="G105" s="835"/>
+      <c r="G105" s="805"/>
       <c r="H105" s="373" t="n">
         <v>0</v>
       </c>
-      <c r="I105" s="838" t="n">
+      <c r="I105" s="808" t="n">
         <f aca="false">H105-E105</f>
         <v>0</v>
       </c>
@@ -42059,15 +41714,15 @@
     </row>
     <row r="106" s="518" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="594" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="B106" s="529" t="n">
         <v>1</v>
       </c>
-      <c r="C106" s="789" t="n">
-        <v>0</v>
-      </c>
-      <c r="D106" s="789" t="n">
+      <c r="C106" s="759" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" s="759" t="n">
         <v>0</v>
       </c>
       <c r="E106" s="531" t="n">
@@ -42084,7 +41739,7 @@
       <c r="H106" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="I106" s="837" t="n">
+      <c r="I106" s="807" t="n">
         <f aca="false">H106-E106</f>
         <v>0</v>
       </c>
@@ -42099,10 +41754,10 @@
       <c r="B107" s="538" t="n">
         <v>1</v>
       </c>
-      <c r="C107" s="794" t="n">
-        <v>0</v>
-      </c>
-      <c r="D107" s="794" t="n">
+      <c r="C107" s="764" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" s="764" t="n">
         <v>0</v>
       </c>
       <c r="E107" s="531"/>
@@ -42113,7 +41768,7 @@
       <c r="H107" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="I107" s="838" t="n">
+      <c r="I107" s="808" t="n">
         <f aca="false">H107-E107</f>
         <v>0</v>
       </c>
@@ -42122,15 +41777,15 @@
     </row>
     <row r="108" s="518" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="594" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="B108" s="529" t="n">
         <v>1</v>
       </c>
-      <c r="C108" s="789" t="n">
-        <v>0</v>
-      </c>
-      <c r="D108" s="789" t="n">
+      <c r="C108" s="759" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" s="759" t="n">
         <v>0</v>
       </c>
       <c r="E108" s="531" t="n">
@@ -42147,7 +41802,7 @@
       <c r="H108" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="I108" s="837" t="n">
+      <c r="I108" s="807" t="n">
         <f aca="false">H108-E108</f>
         <v>0</v>
       </c>
@@ -42162,33 +41817,33 @@
       <c r="B109" s="538" t="n">
         <v>1</v>
       </c>
-      <c r="C109" s="794" t="n">
-        <v>0</v>
-      </c>
-      <c r="D109" s="794" t="n">
+      <c r="C109" s="764" t="n">
+        <v>0</v>
+      </c>
+      <c r="D109" s="764" t="n">
         <v>0</v>
       </c>
       <c r="E109" s="531"/>
       <c r="F109" s="540"/>
-      <c r="G109" s="851"/>
+      <c r="G109" s="821"/>
       <c r="H109" s="48"/>
-      <c r="I109" s="838" t="n">
+      <c r="I109" s="808" t="n">
         <f aca="false">H109-E109</f>
         <v>0</v>
       </c>
-      <c r="J109" s="852"/>
+      <c r="J109" s="822"/>
     </row>
     <row r="110" s="518" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="594" t="s">
-        <v>473</v>
-      </c>
-      <c r="B110" s="839" t="n">
-        <v>1</v>
-      </c>
-      <c r="C110" s="840" t="n">
-        <v>0</v>
-      </c>
-      <c r="D110" s="840" t="n">
+        <v>464</v>
+      </c>
+      <c r="B110" s="809" t="n">
+        <v>1</v>
+      </c>
+      <c r="C110" s="810" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" s="810" t="n">
         <v>0</v>
       </c>
       <c r="E110" s="531" t="n">
@@ -42205,7 +41860,7 @@
       <c r="H110" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="I110" s="837" t="n">
+      <c r="I110" s="807" t="n">
         <f aca="false">H110-E110</f>
         <v>-3</v>
       </c>
@@ -42220,25 +41875,25 @@
       <c r="B111" s="550" t="n">
         <v>1</v>
       </c>
-      <c r="C111" s="822" t="n">
-        <v>0</v>
-      </c>
-      <c r="D111" s="822" t="n">
+      <c r="C111" s="792" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" s="792" t="n">
         <v>0</v>
       </c>
       <c r="E111" s="531"/>
-      <c r="F111" s="853" t="n">
+      <c r="F111" s="823" t="n">
         <v>0</v>
       </c>
       <c r="G111" s="553"/>
       <c r="H111" s="26" t="n">
         <v>0</v>
       </c>
-      <c r="I111" s="842" t="n">
+      <c r="I111" s="812" t="n">
         <f aca="false">H111-E111</f>
         <v>0</v>
       </c>
-      <c r="J111" s="831"/>
+      <c r="J111" s="801"/>
       <c r="K111" s="517"/>
     </row>
     <row r="112" s="518" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42249,11 +41904,11 @@
       <c r="C112" s="538" t="n">
         <v>1</v>
       </c>
-      <c r="D112" s="794" t="n">
+      <c r="D112" s="764" t="n">
         <v>0</v>
       </c>
       <c r="E112" s="531"/>
-      <c r="F112" s="854" t="n">
+      <c r="F112" s="824" t="n">
         <v>1</v>
       </c>
       <c r="G112" s="553" t="str">
@@ -42263,11 +41918,11 @@
       <c r="H112" s="373" t="n">
         <v>1</v>
       </c>
-      <c r="I112" s="855" t="n">
+      <c r="I112" s="825" t="n">
         <f aca="false">H112-E112</f>
         <v>1</v>
       </c>
-      <c r="J112" s="831" t="str">
+      <c r="J112" s="801" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!B193</f>
         <v>Lublin Poczekajka 6</v>
       </c>
@@ -42275,15 +41930,15 @@
     </row>
     <row r="113" s="518" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="594" t="s">
-        <v>474</v>
-      </c>
-      <c r="B113" s="839" t="n">
-        <v>1</v>
-      </c>
-      <c r="C113" s="840" t="n">
-        <v>0</v>
-      </c>
-      <c r="D113" s="840" t="n">
+        <v>465</v>
+      </c>
+      <c r="B113" s="809" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" s="810" t="n">
+        <v>0</v>
+      </c>
+      <c r="D113" s="810" t="n">
         <v>0</v>
       </c>
       <c r="E113" s="531" t="n">
@@ -42300,7 +41955,7 @@
       <c r="H113" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="I113" s="837" t="n">
+      <c r="I113" s="807" t="n">
         <f aca="false">H113-E113</f>
         <v>-3</v>
       </c>
@@ -42315,14 +41970,14 @@
       <c r="B114" s="550" t="n">
         <v>1</v>
       </c>
-      <c r="C114" s="822" t="n">
-        <v>0</v>
-      </c>
-      <c r="D114" s="822" t="n">
+      <c r="C114" s="792" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" s="792" t="n">
         <v>0</v>
       </c>
       <c r="E114" s="531"/>
-      <c r="F114" s="846" t="n">
+      <c r="F114" s="816" t="n">
         <v>1</v>
       </c>
       <c r="G114" s="574" t="str">
@@ -42332,11 +41987,11 @@
       <c r="H114" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="I114" s="842" t="n">
+      <c r="I114" s="812" t="n">
         <f aca="false">H114-E114</f>
         <v>1</v>
       </c>
-      <c r="J114" s="831" t="str">
+      <c r="J114" s="801" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!B383</f>
         <v>Łęczna 1</v>
       </c>
@@ -42350,21 +42005,21 @@
       <c r="C115" s="538" t="n">
         <v>1</v>
       </c>
-      <c r="D115" s="794" t="n">
+      <c r="D115" s="764" t="n">
         <v>0</v>
       </c>
       <c r="E115" s="531"/>
-      <c r="F115" s="849" t="n">
-        <v>1</v>
-      </c>
-      <c r="G115" s="835" t="str">
+      <c r="F115" s="819" t="n">
+        <v>1</v>
+      </c>
+      <c r="G115" s="805" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!D392</f>
         <v>Świecak Irena</v>
       </c>
       <c r="H115" s="373" t="n">
         <v>1</v>
       </c>
-      <c r="I115" s="838" t="n">
+      <c r="I115" s="808" t="n">
         <f aca="false">H115-E115</f>
         <v>1</v>
       </c>
@@ -42376,15 +42031,15 @@
     </row>
     <row r="116" s="518" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="594" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="B116" s="529" t="n">
         <v>1</v>
       </c>
-      <c r="C116" s="789" t="n">
-        <v>0</v>
-      </c>
-      <c r="D116" s="789" t="n">
+      <c r="C116" s="759" t="n">
+        <v>0</v>
+      </c>
+      <c r="D116" s="759" t="n">
         <v>0</v>
       </c>
       <c r="E116" s="531" t="n">
@@ -42401,7 +42056,7 @@
       <c r="H116" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="I116" s="837" t="n">
+      <c r="I116" s="807" t="n">
         <f aca="false">H116-E116</f>
         <v>-1</v>
       </c>
@@ -42416,24 +42071,24 @@
       <c r="B117" s="538" t="n">
         <v>1</v>
       </c>
-      <c r="C117" s="794" t="n">
-        <v>0</v>
-      </c>
-      <c r="D117" s="794" t="n">
+      <c r="C117" s="764" t="n">
+        <v>0</v>
+      </c>
+      <c r="D117" s="764" t="n">
         <v>0</v>
       </c>
       <c r="E117" s="531"/>
-      <c r="F117" s="849" t="n">
-        <v>1</v>
-      </c>
-      <c r="G117" s="835" t="str">
+      <c r="F117" s="819" t="n">
+        <v>1</v>
+      </c>
+      <c r="G117" s="805" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!D369</f>
         <v>Drzewiecka Emilia</v>
       </c>
       <c r="H117" s="373" t="n">
         <v>1</v>
       </c>
-      <c r="I117" s="838" t="n">
+      <c r="I117" s="808" t="n">
         <f aca="false">H117-E117</f>
         <v>1</v>
       </c>
@@ -42444,15 +42099,15 @@
     </row>
     <row r="118" s="518" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="594" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="B118" s="529" t="n">
         <v>1</v>
       </c>
-      <c r="C118" s="789" t="n">
-        <v>0</v>
-      </c>
-      <c r="D118" s="789" t="n">
+      <c r="C118" s="759" t="n">
+        <v>0</v>
+      </c>
+      <c r="D118" s="759" t="n">
         <v>0</v>
       </c>
       <c r="E118" s="531" t="n">
@@ -42469,55 +42124,55 @@
       <c r="H118" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="I118" s="837" t="n">
+      <c r="I118" s="807" t="n">
         <f aca="false">H118-E118</f>
         <v>0</v>
       </c>
-      <c r="J118" s="856" t="str">
+      <c r="J118" s="826" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!B449</f>
         <v>Zamość Karolówka 1</v>
       </c>
-      <c r="K118" s="784"/>
+      <c r="K118" s="754"/>
     </row>
     <row r="119" s="518" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="598"/>
       <c r="B119" s="538" t="n">
         <v>1</v>
       </c>
-      <c r="C119" s="794" t="n">
-        <v>0</v>
-      </c>
-      <c r="D119" s="794" t="n">
+      <c r="C119" s="764" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" s="764" t="n">
         <v>0</v>
       </c>
       <c r="E119" s="531"/>
       <c r="F119" s="624" t="n">
         <v>0</v>
       </c>
-      <c r="G119" s="835"/>
+      <c r="G119" s="805"/>
       <c r="H119" s="373" t="n">
         <v>0</v>
       </c>
-      <c r="I119" s="838" t="n">
+      <c r="I119" s="808" t="n">
         <f aca="false">H119-E119</f>
         <v>0</v>
       </c>
       <c r="J119" s="622"/>
-      <c r="K119" s="825" t="s">
+      <c r="K119" s="795" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="120" s="518" customFormat="true" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="594" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="B120" s="529" t="n">
         <v>1</v>
       </c>
-      <c r="C120" s="789" t="n">
-        <v>0</v>
-      </c>
-      <c r="D120" s="789" t="n">
+      <c r="C120" s="759" t="n">
+        <v>0</v>
+      </c>
+      <c r="D120" s="759" t="n">
         <v>0</v>
       </c>
       <c r="E120" s="531" t="n">
@@ -42534,7 +42189,7 @@
       <c r="H120" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="I120" s="837" t="n">
+      <c r="I120" s="807" t="n">
         <f aca="false">H120-E120</f>
         <v>-2</v>
       </c>
@@ -42542,7 +42197,7 @@
         <f aca="false">'Lista braci - Reg. 2018'!B18</f>
         <v>Hrubieszów parafia Św. Ducha</v>
       </c>
-      <c r="K120" s="787" t="s">
+      <c r="K120" s="757" t="s">
         <v>384</v>
       </c>
     </row>
@@ -42551,32 +42206,32 @@
       <c r="B121" s="550" t="n">
         <v>1</v>
       </c>
-      <c r="C121" s="822" t="n">
-        <v>0</v>
-      </c>
-      <c r="D121" s="822" t="n">
+      <c r="C121" s="792" t="n">
+        <v>0</v>
+      </c>
+      <c r="D121" s="792" t="n">
         <v>0</v>
       </c>
       <c r="E121" s="531"/>
       <c r="F121" s="556" t="n">
         <v>1</v>
       </c>
-      <c r="G121" s="857" t="str">
+      <c r="G121" s="827" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!D196</f>
         <v>Mateja Tomasz</v>
       </c>
       <c r="H121" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="I121" s="842" t="n">
+      <c r="I121" s="812" t="n">
         <f aca="false">H121-E121</f>
         <v>1</v>
       </c>
-      <c r="J121" s="858" t="str">
+      <c r="J121" s="828" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!B196</f>
         <v>Lublin Poczekajka 6</v>
       </c>
-      <c r="K121" s="787" t="s">
+      <c r="K121" s="757" t="s">
         <v>386</v>
       </c>
     </row>
@@ -42585,24 +42240,24 @@
       <c r="B122" s="538" t="n">
         <v>1</v>
       </c>
-      <c r="C122" s="794" t="n">
-        <v>0</v>
-      </c>
-      <c r="D122" s="794" t="n">
+      <c r="C122" s="764" t="n">
+        <v>0</v>
+      </c>
+      <c r="D122" s="764" t="n">
         <v>0</v>
       </c>
       <c r="E122" s="531"/>
       <c r="F122" s="715" t="n">
         <v>1</v>
       </c>
-      <c r="G122" s="859" t="str">
+      <c r="G122" s="829" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!D219</f>
         <v>Wośko Dominik - od piątku</v>
       </c>
       <c r="H122" s="48" t="n">
         <v>1</v>
       </c>
-      <c r="I122" s="838" t="n">
+      <c r="I122" s="808" t="n">
         <f aca="false">H122-E122</f>
         <v>1</v>
       </c>
@@ -42610,28 +42265,28 @@
         <f aca="false">'Lista braci - Reg. 2018'!B219</f>
         <v>Lublin Poczekajka 8</v>
       </c>
-      <c r="K122" s="787" t="s">
+      <c r="K122" s="757" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="123" s="865" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" s="835" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="594" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="B123" s="565" t="n">
         <v>1</v>
       </c>
-      <c r="C123" s="860" t="n">
-        <v>0</v>
-      </c>
-      <c r="D123" s="860" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" s="861" t="n">
+      <c r="C123" s="830" t="n">
+        <v>0</v>
+      </c>
+      <c r="D123" s="830" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" s="831" t="n">
         <f aca="false">SUM(B123:D124)</f>
         <v>2</v>
       </c>
-      <c r="F123" s="862" t="n">
+      <c r="F123" s="832" t="n">
         <v>2</v>
       </c>
       <c r="G123" s="260" t="str">
@@ -42641,70 +42296,70 @@
       <c r="H123" s="33" t="n">
         <v>2</v>
       </c>
-      <c r="I123" s="863" t="n">
+      <c r="I123" s="833" t="n">
         <f aca="false">H123-E123</f>
         <v>0</v>
       </c>
-      <c r="J123" s="864" t="str">
+      <c r="J123" s="834" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!B135</f>
         <v>Lublin Poczekajka 3</v>
       </c>
-      <c r="P123" s="866"/>
-      <c r="R123" s="866"/>
-      <c r="S123" s="866"/>
-      <c r="T123" s="866"/>
-      <c r="U123" s="866"/>
-      <c r="V123" s="866"/>
-      <c r="W123" s="866"/>
-    </row>
-    <row r="124" s="865" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P123" s="836"/>
+      <c r="R123" s="836"/>
+      <c r="S123" s="836"/>
+      <c r="T123" s="836"/>
+      <c r="U123" s="836"/>
+      <c r="V123" s="836"/>
+      <c r="W123" s="836"/>
+    </row>
+    <row r="124" s="835" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="598"/>
       <c r="B124" s="612" t="n">
         <v>1</v>
       </c>
-      <c r="C124" s="867" t="n">
-        <v>0</v>
-      </c>
-      <c r="D124" s="867" t="n">
-        <v>0</v>
-      </c>
-      <c r="E124" s="861"/>
-      <c r="F124" s="868" t="n">
+      <c r="C124" s="837" t="n">
+        <v>0</v>
+      </c>
+      <c r="D124" s="837" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" s="831"/>
+      <c r="F124" s="838" t="n">
         <v>0</v>
       </c>
       <c r="G124" s="307"/>
       <c r="H124" s="127" t="n">
         <v>0</v>
       </c>
-      <c r="I124" s="869"/>
-      <c r="J124" s="870"/>
-      <c r="K124" s="784"/>
+      <c r="I124" s="839"/>
+      <c r="J124" s="840"/>
+      <c r="K124" s="754"/>
       <c r="L124" s="517"/>
       <c r="M124" s="517"/>
       <c r="N124" s="517"/>
       <c r="O124" s="517"/>
-      <c r="P124" s="866"/>
-      <c r="R124" s="866"/>
-      <c r="S124" s="866"/>
-      <c r="T124" s="866"/>
-      <c r="U124" s="866"/>
-      <c r="V124" s="866"/>
-      <c r="W124" s="866"/>
+      <c r="P124" s="836"/>
+      <c r="R124" s="836"/>
+      <c r="S124" s="836"/>
+      <c r="T124" s="836"/>
+      <c r="U124" s="836"/>
+      <c r="V124" s="836"/>
+      <c r="W124" s="836"/>
     </row>
     <row r="125" s="517" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="594" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="B125" s="529" t="n">
         <v>1</v>
       </c>
-      <c r="C125" s="871" t="n">
-        <v>0</v>
-      </c>
-      <c r="D125" s="871" t="n">
-        <v>0</v>
-      </c>
-      <c r="E125" s="872" t="n">
+      <c r="C125" s="841" t="n">
+        <v>0</v>
+      </c>
+      <c r="D125" s="841" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" s="842" t="n">
         <f aca="false">SUM(B125:D126)</f>
         <v>2</v>
       </c>
@@ -42718,7 +42373,7 @@
       <c r="H125" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="I125" s="873" t="n">
+      <c r="I125" s="843" t="n">
         <f aca="false">H125-E125</f>
         <v>0</v>
       </c>
@@ -42726,63 +42381,63 @@
         <f aca="false">'Lista braci - Reg. 2018'!B136</f>
         <v>Lublin Poczekajka 3</v>
       </c>
-      <c r="K125" s="785" t="s">
+      <c r="K125" s="755" t="s">
         <v>383</v>
       </c>
-      <c r="P125" s="866"/>
-      <c r="R125" s="866"/>
-      <c r="S125" s="866"/>
-      <c r="T125" s="866"/>
-      <c r="U125" s="866"/>
-      <c r="V125" s="866"/>
-      <c r="W125" s="866"/>
+      <c r="P125" s="836"/>
+      <c r="R125" s="836"/>
+      <c r="S125" s="836"/>
+      <c r="T125" s="836"/>
+      <c r="U125" s="836"/>
+      <c r="V125" s="836"/>
+      <c r="W125" s="836"/>
     </row>
     <row r="126" s="517" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="598"/>
       <c r="B126" s="612" t="n">
         <v>1</v>
       </c>
-      <c r="C126" s="867" t="n">
-        <v>0</v>
-      </c>
-      <c r="D126" s="867" t="n">
-        <v>0</v>
-      </c>
-      <c r="E126" s="872"/>
-      <c r="F126" s="874" t="n">
+      <c r="C126" s="837" t="n">
+        <v>0</v>
+      </c>
+      <c r="D126" s="837" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" s="842"/>
+      <c r="F126" s="844" t="n">
         <v>0</v>
       </c>
       <c r="G126" s="613"/>
       <c r="H126" s="92" t="n">
         <v>0</v>
       </c>
-      <c r="I126" s="869"/>
-      <c r="J126" s="801"/>
-      <c r="K126" s="787" t="s">
+      <c r="I126" s="839"/>
+      <c r="J126" s="771"/>
+      <c r="K126" s="757" t="s">
         <v>384</v>
       </c>
-      <c r="P126" s="866"/>
-      <c r="R126" s="866"/>
-      <c r="S126" s="866"/>
-      <c r="T126" s="866"/>
-      <c r="U126" s="866"/>
-      <c r="V126" s="866"/>
-      <c r="W126" s="866"/>
+      <c r="P126" s="836"/>
+      <c r="R126" s="836"/>
+      <c r="S126" s="836"/>
+      <c r="T126" s="836"/>
+      <c r="U126" s="836"/>
+      <c r="V126" s="836"/>
+      <c r="W126" s="836"/>
     </row>
     <row r="127" s="517" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="594" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="B127" s="529" t="n">
         <v>1</v>
       </c>
-      <c r="C127" s="871" t="n">
-        <v>0</v>
-      </c>
-      <c r="D127" s="871" t="n">
-        <v>0</v>
-      </c>
-      <c r="E127" s="875" t="n">
+      <c r="C127" s="841" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" s="841" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" s="845" t="n">
         <f aca="false">SUM(B127:D128)</f>
         <v>2</v>
       </c>
@@ -42796,37 +42451,37 @@
       <c r="H127" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="I127" s="873" t="n">
+      <c r="I127" s="843" t="n">
         <f aca="false">H127-E127</f>
         <v>0</v>
       </c>
-      <c r="J127" s="876" t="str">
+      <c r="J127" s="846" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!B176</f>
         <v>Lublin Poczekajka 5</v>
       </c>
-      <c r="K127" s="787" t="s">
+      <c r="K127" s="757" t="s">
         <v>386</v>
       </c>
-      <c r="P127" s="866"/>
-      <c r="R127" s="866"/>
-      <c r="S127" s="866"/>
-      <c r="T127" s="866"/>
-      <c r="U127" s="866"/>
-      <c r="V127" s="866"/>
-      <c r="W127" s="866"/>
+      <c r="P127" s="836"/>
+      <c r="R127" s="836"/>
+      <c r="S127" s="836"/>
+      <c r="T127" s="836"/>
+      <c r="U127" s="836"/>
+      <c r="V127" s="836"/>
+      <c r="W127" s="836"/>
     </row>
     <row r="128" s="517" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="598"/>
       <c r="B128" s="538" t="n">
         <v>1</v>
       </c>
-      <c r="C128" s="877" t="n">
-        <v>0</v>
-      </c>
-      <c r="D128" s="877" t="n">
-        <v>0</v>
-      </c>
-      <c r="E128" s="875"/>
+      <c r="C128" s="847" t="n">
+        <v>0</v>
+      </c>
+      <c r="D128" s="847" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" s="845"/>
       <c r="F128" s="540" t="n">
         <v>0</v>
       </c>
@@ -42834,29 +42489,29 @@
       <c r="H128" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="I128" s="878" t="n">
+      <c r="I128" s="848" t="n">
         <f aca="false">H128-E128</f>
         <v>0</v>
       </c>
       <c r="J128" s="622"/>
-      <c r="K128" s="787" t="s">
+      <c r="K128" s="757" t="s">
         <v>387</v>
       </c>
-      <c r="L128" s="762"/>
-      <c r="M128" s="879"/>
-      <c r="N128" s="880"/>
-      <c r="O128" s="881"/>
-      <c r="P128" s="866"/>
-      <c r="R128" s="866"/>
-      <c r="S128" s="866"/>
-      <c r="T128" s="866"/>
-      <c r="U128" s="866"/>
-      <c r="V128" s="866"/>
-      <c r="W128" s="866"/>
+      <c r="L128" s="733"/>
+      <c r="M128" s="849"/>
+      <c r="N128" s="850"/>
+      <c r="O128" s="851"/>
+      <c r="P128" s="836"/>
+      <c r="R128" s="836"/>
+      <c r="S128" s="836"/>
+      <c r="T128" s="836"/>
+      <c r="U128" s="836"/>
+      <c r="V128" s="836"/>
+      <c r="W128" s="836"/>
     </row>
     <row r="129" s="517" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="594" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="B129" s="529" t="n">
         <v>1</v>
@@ -42881,7 +42536,7 @@
       <c r="H129" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="I129" s="772" t="n">
+      <c r="I129" s="534" t="n">
         <f aca="false">H129-E129</f>
         <v>0</v>
       </c>
@@ -42889,13 +42544,13 @@
         <f aca="false">'Lista braci - Reg. 2018'!B340</f>
         <v>Lubartów 1</v>
       </c>
-      <c r="Q129" s="866"/>
-      <c r="S129" s="866"/>
-      <c r="T129" s="866"/>
-      <c r="U129" s="866"/>
-      <c r="V129" s="866"/>
-      <c r="W129" s="866"/>
-      <c r="X129" s="866"/>
+      <c r="Q129" s="836"/>
+      <c r="S129" s="836"/>
+      <c r="T129" s="836"/>
+      <c r="U129" s="836"/>
+      <c r="V129" s="836"/>
+      <c r="W129" s="836"/>
+      <c r="X129" s="836"/>
     </row>
     <row r="130" s="517" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="598"/>
@@ -42912,7 +42567,7 @@
       <c r="F130" s="540" t="n">
         <v>0</v>
       </c>
-      <c r="G130" s="781"/>
+      <c r="G130" s="751"/>
       <c r="H130" s="48" t="n">
         <v>0</v>
       </c>
@@ -42921,17 +42576,17 @@
         <v>0</v>
       </c>
       <c r="J130" s="622"/>
-      <c r="Q130" s="866"/>
-      <c r="S130" s="866"/>
-      <c r="T130" s="866"/>
-      <c r="U130" s="866"/>
-      <c r="V130" s="866"/>
-      <c r="W130" s="866"/>
-      <c r="X130" s="866"/>
+      <c r="Q130" s="836"/>
+      <c r="S130" s="836"/>
+      <c r="T130" s="836"/>
+      <c r="U130" s="836"/>
+      <c r="V130" s="836"/>
+      <c r="W130" s="836"/>
+      <c r="X130" s="836"/>
     </row>
     <row r="131" s="517" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="594" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="B131" s="529" t="n">
         <v>1</v>
@@ -42939,7 +42594,7 @@
       <c r="C131" s="589" t="n">
         <v>0</v>
       </c>
-      <c r="D131" s="789" t="n">
+      <c r="D131" s="759" t="n">
         <v>0</v>
       </c>
       <c r="E131" s="531" t="n">
@@ -42956,7 +42611,7 @@
       <c r="H131" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="I131" s="772" t="n">
+      <c r="I131" s="534" t="n">
         <f aca="false">H131-E131</f>
         <v>-1</v>
       </c>
@@ -42964,13 +42619,13 @@
         <f aca="false">'Lista braci - Reg. 2018'!B343</f>
         <v>Lubartów 1</v>
       </c>
-      <c r="Q131" s="866"/>
-      <c r="S131" s="866"/>
-      <c r="T131" s="866"/>
-      <c r="U131" s="866"/>
-      <c r="V131" s="866"/>
-      <c r="W131" s="866"/>
-      <c r="X131" s="866"/>
+      <c r="Q131" s="836"/>
+      <c r="S131" s="836"/>
+      <c r="T131" s="836"/>
+      <c r="U131" s="836"/>
+      <c r="V131" s="836"/>
+      <c r="W131" s="836"/>
+      <c r="X131" s="836"/>
     </row>
     <row r="132" s="517" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="596"/>
@@ -42980,14 +42635,14 @@
       <c r="C132" s="157" t="n">
         <v>0</v>
       </c>
-      <c r="D132" s="822" t="n">
+      <c r="D132" s="792" t="n">
         <v>0</v>
       </c>
       <c r="E132" s="531"/>
       <c r="F132" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="G132" s="882"/>
+      <c r="G132" s="852"/>
       <c r="H132" s="26" t="n">
         <v>0</v>
       </c>
@@ -42996,30 +42651,30 @@
         <v>0</v>
       </c>
       <c r="J132" s="621"/>
-      <c r="Q132" s="866"/>
-      <c r="S132" s="866"/>
-      <c r="T132" s="866"/>
-      <c r="U132" s="866"/>
-      <c r="V132" s="866"/>
-      <c r="W132" s="866"/>
-      <c r="X132" s="866"/>
+      <c r="Q132" s="836"/>
+      <c r="S132" s="836"/>
+      <c r="T132" s="836"/>
+      <c r="U132" s="836"/>
+      <c r="V132" s="836"/>
+      <c r="W132" s="836"/>
+      <c r="X132" s="836"/>
     </row>
     <row r="133" s="517" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="598"/>
       <c r="B133" s="538" t="n">
         <v>1</v>
       </c>
-      <c r="C133" s="794" t="n">
-        <v>0</v>
-      </c>
-      <c r="D133" s="794" t="n">
+      <c r="C133" s="764" t="n">
+        <v>0</v>
+      </c>
+      <c r="D133" s="764" t="n">
         <v>0</v>
       </c>
       <c r="E133" s="531"/>
       <c r="F133" s="540" t="n">
         <v>0</v>
       </c>
-      <c r="G133" s="781"/>
+      <c r="G133" s="751"/>
       <c r="H133" s="48"/>
       <c r="I133" s="561" t="n">
         <f aca="false">H133-E133</f>
@@ -43027,17 +42682,17 @@
       </c>
       <c r="J133" s="622"/>
       <c r="K133" s="578"/>
-      <c r="Q133" s="866"/>
-      <c r="S133" s="866"/>
-      <c r="T133" s="866"/>
-      <c r="U133" s="866"/>
-      <c r="V133" s="866"/>
-      <c r="W133" s="866"/>
-      <c r="X133" s="866"/>
+      <c r="Q133" s="836"/>
+      <c r="S133" s="836"/>
+      <c r="T133" s="836"/>
+      <c r="U133" s="836"/>
+      <c r="V133" s="836"/>
+      <c r="W133" s="836"/>
+      <c r="X133" s="836"/>
     </row>
     <row r="134" s="517" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="594" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B134" s="529" t="n">
         <v>1</v>
@@ -43045,7 +42700,7 @@
       <c r="C134" s="589" t="n">
         <v>0</v>
       </c>
-      <c r="D134" s="789" t="n">
+      <c r="D134" s="759" t="n">
         <v>0</v>
       </c>
       <c r="E134" s="531" t="n">
@@ -43055,14 +42710,14 @@
       <c r="F134" s="618" t="n">
         <v>2</v>
       </c>
-      <c r="G134" s="782" t="str">
+      <c r="G134" s="752" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!D351</f>
         <v>Budzyński Jerzy i Ilona</v>
       </c>
       <c r="H134" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="I134" s="772" t="n">
+      <c r="I134" s="534" t="n">
         <f aca="false">H134-E134</f>
         <v>-1</v>
       </c>
@@ -43071,13 +42726,13 @@
         <v>Lubartów 2</v>
       </c>
       <c r="K134" s="86"/>
-      <c r="Q134" s="866"/>
-      <c r="S134" s="866"/>
-      <c r="T134" s="866"/>
-      <c r="U134" s="866"/>
-      <c r="V134" s="866"/>
-      <c r="W134" s="866"/>
-      <c r="X134" s="866"/>
+      <c r="Q134" s="836"/>
+      <c r="S134" s="836"/>
+      <c r="T134" s="836"/>
+      <c r="U134" s="836"/>
+      <c r="V134" s="836"/>
+      <c r="W134" s="836"/>
+      <c r="X134" s="836"/>
     </row>
     <row r="135" s="517" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="596"/>
@@ -43087,14 +42742,14 @@
       <c r="C135" s="157" t="n">
         <v>0</v>
       </c>
-      <c r="D135" s="822" t="n">
+      <c r="D135" s="792" t="n">
         <v>0</v>
       </c>
       <c r="E135" s="531"/>
       <c r="F135" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="G135" s="882"/>
+      <c r="G135" s="852"/>
       <c r="H135" s="26" t="n">
         <v>0</v>
       </c>
@@ -43104,20 +42759,20 @@
       </c>
       <c r="J135" s="621"/>
       <c r="K135" s="86"/>
-      <c r="Q135" s="866"/>
-      <c r="S135" s="866"/>
-      <c r="T135" s="866"/>
-      <c r="U135" s="866"/>
-      <c r="V135" s="866"/>
-      <c r="W135" s="866"/>
-      <c r="X135" s="866"/>
+      <c r="Q135" s="836"/>
+      <c r="S135" s="836"/>
+      <c r="T135" s="836"/>
+      <c r="U135" s="836"/>
+      <c r="V135" s="836"/>
+      <c r="W135" s="836"/>
+      <c r="X135" s="836"/>
     </row>
     <row r="136" s="517" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="598"/>
-      <c r="B136" s="794" t="n">
-        <v>0</v>
-      </c>
-      <c r="C136" s="794" t="n">
+      <c r="B136" s="764" t="n">
+        <v>0</v>
+      </c>
+      <c r="C136" s="764" t="n">
         <v>0</v>
       </c>
       <c r="D136" s="538" t="n">
@@ -43127,7 +42782,7 @@
       <c r="F136" s="540" t="n">
         <v>0</v>
       </c>
-      <c r="G136" s="781"/>
+      <c r="G136" s="751"/>
       <c r="H136" s="48" t="n">
         <v>0</v>
       </c>
@@ -43136,18 +42791,18 @@
         <v>0</v>
       </c>
       <c r="J136" s="622"/>
-      <c r="K136" s="883"/>
-      <c r="Q136" s="866"/>
-      <c r="S136" s="866"/>
-      <c r="T136" s="866"/>
-      <c r="U136" s="866"/>
-      <c r="V136" s="866"/>
-      <c r="W136" s="866"/>
-      <c r="X136" s="866"/>
+      <c r="K136" s="853"/>
+      <c r="Q136" s="836"/>
+      <c r="S136" s="836"/>
+      <c r="T136" s="836"/>
+      <c r="U136" s="836"/>
+      <c r="V136" s="836"/>
+      <c r="W136" s="836"/>
+      <c r="X136" s="836"/>
     </row>
     <row r="137" s="517" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="594" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="B137" s="529" t="n">
         <v>1</v>
@@ -43155,50 +42810,50 @@
       <c r="C137" s="589" t="n">
         <v>0</v>
       </c>
-      <c r="D137" s="789" t="n">
+      <c r="D137" s="759" t="n">
         <v>0</v>
       </c>
       <c r="E137" s="531" t="n">
         <f aca="false">SUM(B137:B138)+SUM(C137:C138)*2+SUM(D137:D138)</f>
         <v>3</v>
       </c>
-      <c r="F137" s="884" t="n">
-        <v>0</v>
-      </c>
-      <c r="G137" s="885"/>
+      <c r="F137" s="854" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" s="855"/>
       <c r="H137" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="I137" s="772" t="n">
+      <c r="I137" s="534" t="n">
         <f aca="false">H137-E137</f>
         <v>-3</v>
       </c>
       <c r="J137" s="619"/>
-      <c r="K137" s="747"/>
-      <c r="Q137" s="866"/>
-      <c r="S137" s="866"/>
-      <c r="T137" s="866"/>
-      <c r="U137" s="866"/>
-      <c r="V137" s="866"/>
-      <c r="W137" s="866"/>
-      <c r="X137" s="866"/>
+      <c r="K137" s="781"/>
+      <c r="Q137" s="836"/>
+      <c r="S137" s="836"/>
+      <c r="T137" s="836"/>
+      <c r="U137" s="836"/>
+      <c r="V137" s="836"/>
+      <c r="W137" s="836"/>
+      <c r="X137" s="836"/>
     </row>
     <row r="138" s="517" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="598"/>
-      <c r="B138" s="794" t="n">
+      <c r="B138" s="764" t="n">
         <v>0</v>
       </c>
       <c r="C138" s="538" t="n">
         <v>1</v>
       </c>
-      <c r="D138" s="794" t="n">
+      <c r="D138" s="764" t="n">
         <v>0</v>
       </c>
       <c r="E138" s="531"/>
       <c r="F138" s="540" t="n">
         <v>0</v>
       </c>
-      <c r="G138" s="781"/>
+      <c r="G138" s="751"/>
       <c r="H138" s="48" t="n">
         <v>0</v>
       </c>
@@ -43207,20 +42862,20 @@
         <v>0</v>
       </c>
       <c r="J138" s="622"/>
-      <c r="K138" s="785" t="s">
+      <c r="K138" s="755" t="s">
         <v>383</v>
       </c>
-      <c r="Q138" s="866"/>
-      <c r="S138" s="866"/>
-      <c r="T138" s="866"/>
-      <c r="U138" s="866"/>
-      <c r="V138" s="866"/>
-      <c r="W138" s="866"/>
-      <c r="X138" s="866"/>
+      <c r="Q138" s="836"/>
+      <c r="S138" s="836"/>
+      <c r="T138" s="836"/>
+      <c r="U138" s="836"/>
+      <c r="V138" s="836"/>
+      <c r="W138" s="836"/>
+      <c r="X138" s="836"/>
     </row>
     <row r="139" s="517" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="594" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="B139" s="529" t="n">
         <v>1</v>
@@ -43228,7 +42883,7 @@
       <c r="C139" s="589" t="n">
         <v>0</v>
       </c>
-      <c r="D139" s="789" t="n">
+      <c r="D139" s="759" t="n">
         <v>0</v>
       </c>
       <c r="E139" s="531" t="n">
@@ -43238,14 +42893,14 @@
       <c r="F139" s="618" t="n">
         <v>2</v>
       </c>
-      <c r="G139" s="782" t="str">
+      <c r="G139" s="752" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!D478</f>
         <v>Kowalczyk Adam i Agnieszka</v>
       </c>
       <c r="H139" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="I139" s="772" t="n">
+      <c r="I139" s="534" t="n">
         <f aca="false">H139-E139</f>
         <v>-1</v>
       </c>
@@ -43253,16 +42908,16 @@
         <f aca="false">'Lista braci - Reg. 2018'!B478</f>
         <v>Zamość Katedralna 1</v>
       </c>
-      <c r="K139" s="787" t="s">
+      <c r="K139" s="757" t="s">
         <v>384</v>
       </c>
-      <c r="Q139" s="866"/>
-      <c r="S139" s="866"/>
-      <c r="T139" s="866"/>
-      <c r="U139" s="866"/>
-      <c r="V139" s="866"/>
-      <c r="W139" s="866"/>
-      <c r="X139" s="866"/>
+      <c r="Q139" s="836"/>
+      <c r="S139" s="836"/>
+      <c r="T139" s="836"/>
+      <c r="U139" s="836"/>
+      <c r="V139" s="836"/>
+      <c r="W139" s="836"/>
+      <c r="X139" s="836"/>
     </row>
     <row r="140" s="517" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="596"/>
@@ -43272,7 +42927,7 @@
       <c r="C140" s="157" t="n">
         <v>0</v>
       </c>
-      <c r="D140" s="822" t="n">
+      <c r="D140" s="792" t="n">
         <v>0</v>
       </c>
       <c r="E140" s="531"/>
@@ -43288,33 +42943,33 @@
         <v>0</v>
       </c>
       <c r="J140" s="621"/>
-      <c r="K140" s="787" t="s">
+      <c r="K140" s="757" t="s">
         <v>386</v>
       </c>
-      <c r="Q140" s="866"/>
-      <c r="S140" s="866"/>
-      <c r="T140" s="866"/>
-      <c r="U140" s="866"/>
-      <c r="V140" s="866"/>
-      <c r="W140" s="866"/>
-      <c r="X140" s="866"/>
+      <c r="Q140" s="836"/>
+      <c r="S140" s="836"/>
+      <c r="T140" s="836"/>
+      <c r="U140" s="836"/>
+      <c r="V140" s="836"/>
+      <c r="W140" s="836"/>
+      <c r="X140" s="836"/>
     </row>
     <row r="141" s="517" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="598"/>
       <c r="B141" s="538" t="n">
         <v>1</v>
       </c>
-      <c r="C141" s="794" t="n">
-        <v>0</v>
-      </c>
-      <c r="D141" s="794" t="n">
+      <c r="C141" s="764" t="n">
+        <v>0</v>
+      </c>
+      <c r="D141" s="764" t="n">
         <v>0</v>
       </c>
       <c r="E141" s="531"/>
       <c r="F141" s="540" t="n">
         <v>0</v>
       </c>
-      <c r="G141" s="781"/>
+      <c r="G141" s="751"/>
       <c r="H141" s="48" t="n">
         <v>0</v>
       </c>
@@ -43323,24 +42978,24 @@
         <v>0</v>
       </c>
       <c r="J141" s="622"/>
-      <c r="K141" s="787" t="s">
+      <c r="K141" s="757" t="s">
         <v>387</v>
       </c>
       <c r="L141" s="518"/>
-      <c r="M141" s="763"/>
-      <c r="N141" s="764"/>
+      <c r="M141" s="734"/>
+      <c r="N141" s="735"/>
       <c r="O141" s="518"/>
-      <c r="Q141" s="866"/>
-      <c r="S141" s="866"/>
-      <c r="T141" s="866"/>
-      <c r="U141" s="866"/>
-      <c r="V141" s="866"/>
-      <c r="W141" s="866"/>
-      <c r="X141" s="866"/>
+      <c r="Q141" s="836"/>
+      <c r="S141" s="836"/>
+      <c r="T141" s="836"/>
+      <c r="U141" s="836"/>
+      <c r="V141" s="836"/>
+      <c r="W141" s="836"/>
+      <c r="X141" s="836"/>
     </row>
     <row r="142" s="517" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="594" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="B142" s="529" t="n">
         <v>1</v>
@@ -43348,24 +43003,24 @@
       <c r="C142" s="589" t="n">
         <v>0</v>
       </c>
-      <c r="D142" s="789" t="n">
+      <c r="D142" s="759" t="n">
         <v>0</v>
       </c>
       <c r="E142" s="531" t="n">
         <f aca="false">SUM(B142:B144)+SUM(C142:C144)*2+SUM(D142:D144)</f>
         <v>3</v>
       </c>
-      <c r="F142" s="886" t="n">
-        <v>1</v>
-      </c>
-      <c r="G142" s="782" t="str">
+      <c r="F142" s="856" t="n">
+        <v>1</v>
+      </c>
+      <c r="G142" s="752" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!D428</f>
         <v>Drański Piotr</v>
       </c>
       <c r="H142" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="I142" s="772" t="n">
+      <c r="I142" s="534" t="n">
         <f aca="false">H142-E142</f>
         <v>-2</v>
       </c>
@@ -43374,13 +43029,13 @@
         <v>Opole 2</v>
       </c>
       <c r="K142" s="518"/>
-      <c r="Q142" s="866"/>
-      <c r="S142" s="866"/>
-      <c r="T142" s="866"/>
-      <c r="U142" s="866"/>
-      <c r="V142" s="866"/>
-      <c r="W142" s="866"/>
-      <c r="X142" s="866"/>
+      <c r="Q142" s="836"/>
+      <c r="S142" s="836"/>
+      <c r="T142" s="836"/>
+      <c r="U142" s="836"/>
+      <c r="V142" s="836"/>
+      <c r="W142" s="836"/>
+      <c r="X142" s="836"/>
     </row>
     <row r="143" s="517" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="596"/>
@@ -43390,14 +43045,14 @@
       <c r="C143" s="157" t="n">
         <v>0</v>
       </c>
-      <c r="D143" s="822" t="n">
+      <c r="D143" s="792" t="n">
         <v>0</v>
       </c>
       <c r="E143" s="531"/>
       <c r="F143" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="G143" s="882"/>
+      <c r="G143" s="852"/>
       <c r="H143" s="26" t="n">
         <v>0</v>
       </c>
@@ -43407,20 +43062,20 @@
       </c>
       <c r="J143" s="621"/>
       <c r="K143" s="518"/>
-      <c r="Q143" s="866"/>
-      <c r="S143" s="866"/>
-      <c r="T143" s="866"/>
-      <c r="U143" s="866"/>
-      <c r="V143" s="866"/>
-      <c r="W143" s="866"/>
-      <c r="X143" s="866"/>
+      <c r="Q143" s="836"/>
+      <c r="S143" s="836"/>
+      <c r="T143" s="836"/>
+      <c r="U143" s="836"/>
+      <c r="V143" s="836"/>
+      <c r="W143" s="836"/>
+      <c r="X143" s="836"/>
     </row>
     <row r="144" s="517" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="598"/>
-      <c r="B144" s="794" t="n">
-        <v>0</v>
-      </c>
-      <c r="C144" s="794" t="n">
+      <c r="B144" s="764" t="n">
+        <v>0</v>
+      </c>
+      <c r="C144" s="764" t="n">
         <v>0</v>
       </c>
       <c r="D144" s="538" t="n">
@@ -43430,7 +43085,7 @@
       <c r="F144" s="540" t="n">
         <v>0</v>
       </c>
-      <c r="G144" s="781"/>
+      <c r="G144" s="751"/>
       <c r="H144" s="48" t="n">
         <v>0</v>
       </c>
@@ -43440,17 +43095,17 @@
       </c>
       <c r="J144" s="622"/>
       <c r="K144" s="518"/>
-      <c r="Q144" s="866"/>
-      <c r="S144" s="866"/>
-      <c r="T144" s="866"/>
-      <c r="U144" s="866"/>
-      <c r="V144" s="866"/>
-      <c r="W144" s="866"/>
-      <c r="X144" s="866"/>
+      <c r="Q144" s="836"/>
+      <c r="S144" s="836"/>
+      <c r="T144" s="836"/>
+      <c r="U144" s="836"/>
+      <c r="V144" s="836"/>
+      <c r="W144" s="836"/>
+      <c r="X144" s="836"/>
     </row>
     <row r="145" s="517" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="594" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="B145" s="529" t="n">
         <v>1</v>
@@ -43465,7 +43120,7 @@
         <f aca="false">SUM(B145:B146)+SUM(C145:C146)*2+SUM(D145:D146)</f>
         <v>2</v>
       </c>
-      <c r="F145" s="887" t="n">
+      <c r="F145" s="857" t="n">
         <v>2</v>
       </c>
       <c r="G145" s="533" t="str">
@@ -43475,7 +43130,7 @@
       <c r="H145" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="I145" s="772" t="n">
+      <c r="I145" s="534" t="n">
         <f aca="false">H145-E145</f>
         <v>0</v>
       </c>
@@ -43484,13 +43139,13 @@
         <v>Lublin Pallotyni 2</v>
       </c>
       <c r="K145" s="12"/>
-      <c r="Q145" s="866"/>
-      <c r="S145" s="866"/>
-      <c r="T145" s="866"/>
-      <c r="U145" s="866"/>
-      <c r="V145" s="866"/>
-      <c r="W145" s="866"/>
-      <c r="X145" s="866"/>
+      <c r="Q145" s="836"/>
+      <c r="S145" s="836"/>
+      <c r="T145" s="836"/>
+      <c r="U145" s="836"/>
+      <c r="V145" s="836"/>
+      <c r="W145" s="836"/>
+      <c r="X145" s="836"/>
     </row>
     <row r="146" s="517" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="598"/>
@@ -43507,7 +43162,7 @@
       <c r="F146" s="540" t="n">
         <v>0</v>
       </c>
-      <c r="G146" s="781"/>
+      <c r="G146" s="751"/>
       <c r="H146" s="48" t="n">
         <v>0</v>
       </c>
@@ -43517,17 +43172,17 @@
       </c>
       <c r="J146" s="622"/>
       <c r="K146" s="518"/>
-      <c r="Q146" s="866"/>
-      <c r="S146" s="866"/>
-      <c r="T146" s="866"/>
-      <c r="U146" s="866"/>
-      <c r="V146" s="866"/>
-      <c r="W146" s="866"/>
-      <c r="X146" s="866"/>
+      <c r="Q146" s="836"/>
+      <c r="S146" s="836"/>
+      <c r="T146" s="836"/>
+      <c r="U146" s="836"/>
+      <c r="V146" s="836"/>
+      <c r="W146" s="836"/>
+      <c r="X146" s="836"/>
     </row>
     <row r="147" s="517" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="594" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="B147" s="430" t="n">
         <v>1</v>
@@ -43535,14 +43190,14 @@
       <c r="C147" s="589" t="n">
         <v>0</v>
       </c>
-      <c r="D147" s="789" t="n">
+      <c r="D147" s="759" t="n">
         <v>0</v>
       </c>
       <c r="E147" s="648" t="n">
         <f aca="false">SUM(B147:B149)+SUM(C147:C149)*2+SUM(D147:D149)</f>
         <v>3</v>
       </c>
-      <c r="F147" s="888" t="n">
+      <c r="F147" s="858" t="n">
         <v>2</v>
       </c>
       <c r="G147" s="553" t="str">
@@ -43552,7 +43207,7 @@
       <c r="H147" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="I147" s="772" t="n">
+      <c r="I147" s="534" t="n">
         <f aca="false">H147-E147</f>
         <v>-1</v>
       </c>
@@ -43561,13 +43216,13 @@
         <v>Lublin Pallotyni 2</v>
       </c>
       <c r="K147" s="518"/>
-      <c r="Q147" s="866"/>
-      <c r="S147" s="866"/>
-      <c r="T147" s="866"/>
-      <c r="U147" s="866"/>
-      <c r="V147" s="866"/>
-      <c r="W147" s="866"/>
-      <c r="X147" s="866"/>
+      <c r="Q147" s="836"/>
+      <c r="S147" s="836"/>
+      <c r="T147" s="836"/>
+      <c r="U147" s="836"/>
+      <c r="V147" s="836"/>
+      <c r="W147" s="836"/>
+      <c r="X147" s="836"/>
     </row>
     <row r="148" s="517" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="596"/>
@@ -43577,14 +43232,14 @@
       <c r="C148" s="157" t="n">
         <v>0</v>
       </c>
-      <c r="D148" s="822" t="n">
+      <c r="D148" s="792" t="n">
         <v>0</v>
       </c>
       <c r="E148" s="648"/>
       <c r="F148" s="156" t="n">
         <v>0</v>
       </c>
-      <c r="G148" s="882"/>
+      <c r="G148" s="852"/>
       <c r="H148" s="26" t="n">
         <v>0</v>
       </c>
@@ -43594,20 +43249,20 @@
       </c>
       <c r="J148" s="621"/>
       <c r="K148" s="518"/>
-      <c r="Q148" s="866"/>
-      <c r="S148" s="866"/>
-      <c r="T148" s="866"/>
-      <c r="U148" s="866"/>
-      <c r="V148" s="866"/>
-      <c r="W148" s="866"/>
-      <c r="X148" s="866"/>
+      <c r="Q148" s="836"/>
+      <c r="S148" s="836"/>
+      <c r="T148" s="836"/>
+      <c r="U148" s="836"/>
+      <c r="V148" s="836"/>
+      <c r="W148" s="836"/>
+      <c r="X148" s="836"/>
     </row>
     <row r="149" s="517" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="598"/>
-      <c r="B149" s="794" t="n">
-        <v>0</v>
-      </c>
-      <c r="C149" s="794" t="n">
+      <c r="B149" s="764" t="n">
+        <v>0</v>
+      </c>
+      <c r="C149" s="764" t="n">
         <v>0</v>
       </c>
       <c r="D149" s="55" t="n">
@@ -43617,7 +43272,7 @@
       <c r="F149" s="55" t="n">
         <v>0</v>
       </c>
-      <c r="G149" s="781"/>
+      <c r="G149" s="751"/>
       <c r="H149" s="48" t="n">
         <v>0</v>
       </c>
@@ -43627,19 +43282,19 @@
       </c>
       <c r="J149" s="622"/>
       <c r="K149" s="518"/>
-      <c r="Q149" s="866"/>
-      <c r="S149" s="866"/>
-      <c r="T149" s="866"/>
-      <c r="U149" s="866"/>
-      <c r="V149" s="866"/>
-      <c r="W149" s="866"/>
-      <c r="X149" s="866"/>
+      <c r="Q149" s="836"/>
+      <c r="S149" s="836"/>
+      <c r="T149" s="836"/>
+      <c r="U149" s="836"/>
+      <c r="V149" s="836"/>
+      <c r="W149" s="836"/>
+      <c r="X149" s="836"/>
     </row>
     <row r="150" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="588" t="s">
-        <v>489</v>
-      </c>
-      <c r="B150" s="889" t="n">
+        <v>480</v>
+      </c>
+      <c r="B150" s="859" t="n">
         <v>1</v>
       </c>
       <c r="C150" s="589" t="n">
@@ -43652,17 +43307,17 @@
         <f aca="false">SUM(B150:B153)+SUM(C150:C153)*2+SUM(D150:D153)</f>
         <v>4</v>
       </c>
-      <c r="F150" s="890" t="n">
+      <c r="F150" s="860" t="n">
         <v>1</v>
       </c>
       <c r="G150" s="533" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!D77</f>
         <v>Abramowicz Sergiej</v>
       </c>
-      <c r="H150" s="891" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" s="772" t="n">
+      <c r="H150" s="861" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" s="534" t="n">
         <f aca="false">H150-E150</f>
         <v>-3</v>
       </c>
@@ -43675,46 +43330,46 @@
       <c r="N150" s="517"/>
       <c r="O150" s="517"/>
       <c r="P150" s="517"/>
-      <c r="Q150" s="866"/>
+      <c r="Q150" s="836"/>
       <c r="R150" s="517"/>
     </row>
     <row r="151" s="518" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="591"/>
-      <c r="B151" s="892" t="n">
-        <v>1</v>
-      </c>
-      <c r="C151" s="809" t="n">
-        <v>0</v>
-      </c>
-      <c r="D151" s="809" t="n">
+      <c r="B151" s="862" t="n">
+        <v>1</v>
+      </c>
+      <c r="C151" s="779" t="n">
+        <v>0</v>
+      </c>
+      <c r="D151" s="779" t="n">
         <v>0</v>
       </c>
       <c r="E151" s="531"/>
-      <c r="F151" s="893" t="n">
+      <c r="F151" s="863" t="n">
         <v>1</v>
       </c>
       <c r="G151" s="701" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!D80</f>
         <v>Kłopotowski Andrzej - od piątku</v>
       </c>
-      <c r="H151" s="894" t="n">
+      <c r="H151" s="864" t="n">
         <v>1</v>
       </c>
       <c r="I151" s="583" t="n">
         <f aca="false">H151-E151</f>
         <v>1</v>
       </c>
-      <c r="J151" s="847" t="str">
+      <c r="J151" s="817" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!B80</f>
         <v>Lublin Pallotyni 2</v>
       </c>
       <c r="P151" s="517"/>
-      <c r="Q151" s="866"/>
+      <c r="Q151" s="836"/>
       <c r="R151" s="517"/>
     </row>
     <row r="152" s="518" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="591"/>
-      <c r="B152" s="895" t="n">
+      <c r="B152" s="865" t="n">
         <v>1</v>
       </c>
       <c r="C152" s="157" t="n">
@@ -43724,21 +43379,21 @@
         <v>0</v>
       </c>
       <c r="E152" s="531"/>
-      <c r="F152" s="896" t="n">
+      <c r="F152" s="866" t="n">
         <v>1</v>
       </c>
       <c r="G152" s="553" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!D245</f>
         <v>Drozd Mirosław</v>
       </c>
-      <c r="H152" s="897" t="n">
+      <c r="H152" s="867" t="n">
         <v>1</v>
       </c>
       <c r="I152" s="583" t="n">
         <f aca="false">H152-E152</f>
         <v>1</v>
       </c>
-      <c r="J152" s="847" t="str">
+      <c r="J152" s="817" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!B245</f>
         <v>Lublin Różańcowa 1</v>
       </c>
@@ -43755,28 +43410,28 @@
         <v>0</v>
       </c>
       <c r="E153" s="531"/>
-      <c r="F153" s="898" t="n">
-        <v>1</v>
-      </c>
-      <c r="G153" s="835" t="str">
+      <c r="F153" s="868" t="n">
+        <v>1</v>
+      </c>
+      <c r="G153" s="805" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!D287</f>
         <v>Niedźwiedź Andrzej</v>
       </c>
-      <c r="H153" s="899" t="n">
+      <c r="H153" s="869" t="n">
         <v>1</v>
       </c>
       <c r="I153" s="561" t="n">
         <f aca="false">H153-E153</f>
         <v>1</v>
       </c>
-      <c r="J153" s="900" t="str">
+      <c r="J153" s="870" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!B287</f>
         <v>Lublin Salezjanie 2</v>
       </c>
     </row>
     <row r="154" s="517" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="594" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="B154" s="529" t="n">
         <v>1</v>
@@ -43784,24 +43439,24 @@
       <c r="C154" s="589" t="n">
         <v>0</v>
       </c>
-      <c r="D154" s="789" t="n">
+      <c r="D154" s="759" t="n">
         <v>0</v>
       </c>
       <c r="E154" s="531" t="n">
         <f aca="false">SUM(B154:B156)+SUM(C154:C156)*2+SUM(D154:D156)</f>
         <v>3</v>
       </c>
-      <c r="F154" s="887" t="n">
-        <v>2</v>
-      </c>
-      <c r="G154" s="782" t="str">
+      <c r="F154" s="857" t="n">
+        <v>2</v>
+      </c>
+      <c r="G154" s="752" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!D91</f>
         <v>Wasilewscy Jan i  Joanna</v>
       </c>
       <c r="H154" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="I154" s="772" t="n">
+      <c r="I154" s="534" t="n">
         <f aca="false">H154-E154</f>
         <v>-1</v>
       </c>
@@ -43809,20 +43464,20 @@
         <f aca="false">'Lista braci - Reg. 2018'!B91</f>
         <v>Lublin Pallotyni 3</v>
       </c>
-      <c r="K154" s="901"/>
+      <c r="K154" s="871"/>
       <c r="L154" s="518"/>
-      <c r="M154" s="763"/>
-      <c r="N154" s="764"/>
+      <c r="M154" s="734"/>
+      <c r="N154" s="735"/>
       <c r="O154" s="518"/>
       <c r="P154" s="518"/>
       <c r="Q154" s="518"/>
       <c r="R154" s="518"/>
-      <c r="S154" s="866"/>
-      <c r="T154" s="866"/>
-      <c r="U154" s="866"/>
-      <c r="V154" s="866"/>
-      <c r="W154" s="866"/>
-      <c r="X154" s="866"/>
+      <c r="S154" s="836"/>
+      <c r="T154" s="836"/>
+      <c r="U154" s="836"/>
+      <c r="V154" s="836"/>
+      <c r="W154" s="836"/>
+      <c r="X154" s="836"/>
     </row>
     <row r="155" s="517" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="596"/>
@@ -43832,14 +43487,14 @@
       <c r="C155" s="157" t="n">
         <v>0</v>
       </c>
-      <c r="D155" s="822" t="n">
+      <c r="D155" s="792" t="n">
         <v>0</v>
       </c>
       <c r="E155" s="531"/>
       <c r="F155" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="G155" s="902"/>
+      <c r="G155" s="872"/>
       <c r="H155" s="26"/>
       <c r="I155" s="583" t="n">
         <f aca="false">H155-E155</f>
@@ -43850,19 +43505,19 @@
       <c r="P155" s="518"/>
       <c r="Q155" s="518"/>
       <c r="R155" s="518"/>
-      <c r="S155" s="866"/>
-      <c r="T155" s="866"/>
-      <c r="U155" s="866"/>
-      <c r="V155" s="866"/>
-      <c r="W155" s="866"/>
-      <c r="X155" s="866"/>
+      <c r="S155" s="836"/>
+      <c r="T155" s="836"/>
+      <c r="U155" s="836"/>
+      <c r="V155" s="836"/>
+      <c r="W155" s="836"/>
+      <c r="X155" s="836"/>
     </row>
     <row r="156" s="517" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="598"/>
-      <c r="B156" s="794" t="n">
-        <v>0</v>
-      </c>
-      <c r="C156" s="794" t="n">
+      <c r="B156" s="764" t="n">
+        <v>0</v>
+      </c>
+      <c r="C156" s="764" t="n">
         <v>0</v>
       </c>
       <c r="D156" s="538" t="n">
@@ -43872,7 +43527,7 @@
       <c r="F156" s="540" t="n">
         <v>0</v>
       </c>
-      <c r="G156" s="903"/>
+      <c r="G156" s="873"/>
       <c r="H156" s="48"/>
       <c r="I156" s="561" t="n">
         <f aca="false">H156-E156</f>
@@ -43880,17 +43535,17 @@
       </c>
       <c r="J156" s="622"/>
       <c r="K156" s="518"/>
-      <c r="Q156" s="866"/>
-      <c r="S156" s="866"/>
-      <c r="T156" s="866"/>
-      <c r="U156" s="866"/>
-      <c r="V156" s="866"/>
-      <c r="W156" s="866"/>
-      <c r="X156" s="866"/>
+      <c r="Q156" s="836"/>
+      <c r="S156" s="836"/>
+      <c r="T156" s="836"/>
+      <c r="U156" s="836"/>
+      <c r="V156" s="836"/>
+      <c r="W156" s="836"/>
+      <c r="X156" s="836"/>
     </row>
     <row r="157" s="517" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="594" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="B157" s="529" t="n">
         <v>1</v>
@@ -43898,24 +43553,24 @@
       <c r="C157" s="589" t="n">
         <v>0</v>
       </c>
-      <c r="D157" s="789" t="n">
+      <c r="D157" s="759" t="n">
         <v>0</v>
       </c>
       <c r="E157" s="609" t="n">
         <f aca="false">SUM(B157:B159)+SUM(C157:C159)*2+SUM(D157:D159)</f>
         <v>3</v>
       </c>
-      <c r="F157" s="887" t="n">
-        <v>2</v>
-      </c>
-      <c r="G157" s="782" t="str">
+      <c r="F157" s="857" t="n">
+        <v>2</v>
+      </c>
+      <c r="G157" s="752" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!D92</f>
         <v>Pulińscy Ryszard i Jadwiga</v>
       </c>
       <c r="H157" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="I157" s="772" t="n">
+      <c r="I157" s="534" t="n">
         <f aca="false">H157-E157</f>
         <v>-1</v>
       </c>
@@ -43924,13 +43579,13 @@
         <v>Lublin Pallotyni 3</v>
       </c>
       <c r="K157" s="518"/>
-      <c r="Q157" s="866"/>
-      <c r="S157" s="866"/>
-      <c r="T157" s="866"/>
-      <c r="U157" s="866"/>
-      <c r="V157" s="866"/>
-      <c r="W157" s="866"/>
-      <c r="X157" s="866"/>
+      <c r="Q157" s="836"/>
+      <c r="S157" s="836"/>
+      <c r="T157" s="836"/>
+      <c r="U157" s="836"/>
+      <c r="V157" s="836"/>
+      <c r="W157" s="836"/>
+      <c r="X157" s="836"/>
     </row>
     <row r="158" s="517" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="596"/>
@@ -43940,14 +43595,14 @@
       <c r="C158" s="157" t="n">
         <v>0</v>
       </c>
-      <c r="D158" s="822" t="n">
+      <c r="D158" s="792" t="n">
         <v>0</v>
       </c>
       <c r="E158" s="609"/>
       <c r="F158" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="G158" s="882"/>
+      <c r="G158" s="852"/>
       <c r="H158" s="26"/>
       <c r="I158" s="583" t="n">
         <f aca="false">H158-E158</f>
@@ -43955,20 +43610,20 @@
       </c>
       <c r="J158" s="621"/>
       <c r="K158" s="518"/>
-      <c r="Q158" s="866"/>
-      <c r="S158" s="866"/>
-      <c r="T158" s="866"/>
-      <c r="U158" s="866"/>
-      <c r="V158" s="866"/>
-      <c r="W158" s="866"/>
-      <c r="X158" s="866"/>
+      <c r="Q158" s="836"/>
+      <c r="S158" s="836"/>
+      <c r="T158" s="836"/>
+      <c r="U158" s="836"/>
+      <c r="V158" s="836"/>
+      <c r="W158" s="836"/>
+      <c r="X158" s="836"/>
     </row>
     <row r="159" s="517" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="598"/>
-      <c r="B159" s="833" t="n">
-        <v>0</v>
-      </c>
-      <c r="C159" s="833" t="n">
+      <c r="B159" s="803" t="n">
+        <v>0</v>
+      </c>
+      <c r="C159" s="803" t="n">
         <v>0</v>
       </c>
       <c r="D159" s="612" t="n">
@@ -43978,30 +43633,30 @@
       <c r="F159" s="540" t="n">
         <v>0</v>
       </c>
-      <c r="G159" s="800"/>
+      <c r="G159" s="770"/>
       <c r="H159" s="48"/>
       <c r="I159" s="614" t="n">
         <f aca="false">H159-E159</f>
         <v>0</v>
       </c>
-      <c r="J159" s="801"/>
+      <c r="J159" s="771"/>
       <c r="K159" s="518"/>
-      <c r="Q159" s="866"/>
-      <c r="S159" s="866"/>
-      <c r="T159" s="866"/>
-      <c r="U159" s="866"/>
-      <c r="V159" s="866"/>
-      <c r="W159" s="866"/>
-      <c r="X159" s="866"/>
+      <c r="Q159" s="836"/>
+      <c r="S159" s="836"/>
+      <c r="T159" s="836"/>
+      <c r="U159" s="836"/>
+      <c r="V159" s="836"/>
+      <c r="W159" s="836"/>
+      <c r="X159" s="836"/>
     </row>
     <row r="160" s="517" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="594" t="s">
-        <v>492</v>
-      </c>
-      <c r="B160" s="789" t="n">
-        <v>0</v>
-      </c>
-      <c r="C160" s="789" t="n">
+        <v>483</v>
+      </c>
+      <c r="B160" s="759" t="n">
+        <v>0</v>
+      </c>
+      <c r="C160" s="759" t="n">
         <v>0</v>
       </c>
       <c r="D160" s="529" t="n">
@@ -44014,14 +43669,14 @@
       <c r="F160" s="618" t="n">
         <v>2</v>
       </c>
-      <c r="G160" s="782" t="str">
+      <c r="G160" s="752" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!D246</f>
         <v>Sieńko Józef i Ewa</v>
       </c>
       <c r="H160" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="I160" s="772" t="n">
+      <c r="I160" s="534" t="n">
         <f aca="false">H160-E160</f>
         <v>0</v>
       </c>
@@ -44030,20 +43685,20 @@
         <v>Lublin Różańcowa 1</v>
       </c>
       <c r="K160" s="518"/>
-      <c r="Q160" s="866"/>
-      <c r="S160" s="866"/>
-      <c r="T160" s="866"/>
-      <c r="U160" s="866"/>
-      <c r="V160" s="866"/>
-      <c r="W160" s="866"/>
-      <c r="X160" s="866"/>
+      <c r="Q160" s="836"/>
+      <c r="S160" s="836"/>
+      <c r="T160" s="836"/>
+      <c r="U160" s="836"/>
+      <c r="V160" s="836"/>
+      <c r="W160" s="836"/>
+      <c r="X160" s="836"/>
     </row>
     <row r="161" s="517" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="598"/>
-      <c r="B161" s="794" t="n">
-        <v>0</v>
-      </c>
-      <c r="C161" s="794" t="n">
+      <c r="B161" s="764" t="n">
+        <v>0</v>
+      </c>
+      <c r="C161" s="764" t="n">
         <v>0</v>
       </c>
       <c r="D161" s="538" t="n">
@@ -44053,7 +43708,7 @@
       <c r="F161" s="540" t="n">
         <v>0</v>
       </c>
-      <c r="G161" s="781"/>
+      <c r="G161" s="751"/>
       <c r="H161" s="48"/>
       <c r="I161" s="561" t="n">
         <f aca="false">H161-E161</f>
@@ -44061,22 +43716,22 @@
       </c>
       <c r="J161" s="622"/>
       <c r="K161" s="518"/>
-      <c r="Q161" s="866"/>
-      <c r="S161" s="866"/>
-      <c r="T161" s="866"/>
-      <c r="U161" s="866"/>
-      <c r="V161" s="866"/>
-      <c r="W161" s="866"/>
-      <c r="X161" s="866"/>
+      <c r="Q161" s="836"/>
+      <c r="S161" s="836"/>
+      <c r="T161" s="836"/>
+      <c r="U161" s="836"/>
+      <c r="V161" s="836"/>
+      <c r="W161" s="836"/>
+      <c r="X161" s="836"/>
     </row>
     <row r="162" s="517" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="594" t="s">
-        <v>493</v>
-      </c>
-      <c r="B162" s="904" t="n">
-        <v>1</v>
-      </c>
-      <c r="C162" s="789" t="n">
+        <v>484</v>
+      </c>
+      <c r="B162" s="874" t="n">
+        <v>1</v>
+      </c>
+      <c r="C162" s="759" t="n">
         <v>0</v>
       </c>
       <c r="D162" s="430" t="n">
@@ -44086,59 +43741,59 @@
         <f aca="false">SUM(B162:B164)+SUM(C162:C164)*2+SUM(D162:D164)</f>
         <v>3</v>
       </c>
-      <c r="F162" s="905"/>
-      <c r="G162" s="906" t="s">
-        <v>494</v>
+      <c r="F162" s="875"/>
+      <c r="G162" s="876" t="s">
+        <v>485</v>
       </c>
       <c r="H162" s="20"/>
-      <c r="I162" s="776" t="n">
+      <c r="I162" s="746" t="n">
         <f aca="false">H162-E162</f>
         <v>-3</v>
       </c>
-      <c r="J162" s="830"/>
-      <c r="Q162" s="866"/>
-      <c r="S162" s="866"/>
-      <c r="T162" s="866"/>
-      <c r="U162" s="866"/>
-      <c r="V162" s="866"/>
-      <c r="W162" s="866"/>
-      <c r="X162" s="866"/>
+      <c r="J162" s="800"/>
+      <c r="Q162" s="836"/>
+      <c r="S162" s="836"/>
+      <c r="T162" s="836"/>
+      <c r="U162" s="836"/>
+      <c r="V162" s="836"/>
+      <c r="W162" s="836"/>
+      <c r="X162" s="836"/>
     </row>
     <row r="163" s="517" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="596"/>
-      <c r="B163" s="907" t="n">
-        <v>1</v>
-      </c>
-      <c r="C163" s="814" t="n">
-        <v>0</v>
-      </c>
-      <c r="D163" s="777" t="n">
+      <c r="B163" s="877" t="n">
+        <v>1</v>
+      </c>
+      <c r="C163" s="785" t="n">
+        <v>0</v>
+      </c>
+      <c r="D163" s="747" t="n">
         <v>0</v>
       </c>
       <c r="E163" s="531"/>
       <c r="F163" s="726"/>
-      <c r="G163" s="882"/>
+      <c r="G163" s="852"/>
       <c r="H163" s="31"/>
       <c r="I163" s="583" t="n">
         <f aca="false">H163-E163</f>
         <v>0</v>
       </c>
       <c r="J163" s="621"/>
-      <c r="K163" s="784"/>
-      <c r="Q163" s="866"/>
-      <c r="S163" s="866"/>
-      <c r="T163" s="866"/>
-      <c r="U163" s="866"/>
-      <c r="V163" s="866"/>
-      <c r="W163" s="866"/>
-      <c r="X163" s="866"/>
+      <c r="K163" s="754"/>
+      <c r="Q163" s="836"/>
+      <c r="S163" s="836"/>
+      <c r="T163" s="836"/>
+      <c r="U163" s="836"/>
+      <c r="V163" s="836"/>
+      <c r="W163" s="836"/>
+      <c r="X163" s="836"/>
     </row>
     <row r="164" s="517" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="598"/>
-      <c r="B164" s="908" t="n">
-        <v>1</v>
-      </c>
-      <c r="C164" s="794" t="n">
+      <c r="B164" s="878" t="n">
+        <v>1</v>
+      </c>
+      <c r="C164" s="764" t="n">
         <v>0</v>
       </c>
       <c r="D164" s="55" t="n">
@@ -44148,32 +43803,32 @@
       <c r="F164" s="624" t="n">
         <v>0</v>
       </c>
-      <c r="G164" s="835"/>
+      <c r="G164" s="805"/>
       <c r="H164" s="48"/>
       <c r="I164" s="561" t="n">
         <f aca="false">H164-E164</f>
         <v>0</v>
       </c>
-      <c r="J164" s="909"/>
-      <c r="K164" s="785" t="s">
+      <c r="J164" s="879"/>
+      <c r="K164" s="755" t="s">
         <v>383</v>
       </c>
-      <c r="Q164" s="866"/>
-      <c r="S164" s="866"/>
-      <c r="T164" s="866"/>
-      <c r="U164" s="866"/>
-      <c r="V164" s="866"/>
-      <c r="W164" s="866"/>
-      <c r="X164" s="866"/>
+      <c r="Q164" s="836"/>
+      <c r="S164" s="836"/>
+      <c r="T164" s="836"/>
+      <c r="U164" s="836"/>
+      <c r="V164" s="836"/>
+      <c r="W164" s="836"/>
+      <c r="X164" s="836"/>
     </row>
     <row r="165" s="517" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="594" t="s">
-        <v>495</v>
-      </c>
-      <c r="B165" s="904" t="n">
-        <v>1</v>
-      </c>
-      <c r="C165" s="789" t="n">
+        <v>486</v>
+      </c>
+      <c r="B165" s="874" t="n">
+        <v>1</v>
+      </c>
+      <c r="C165" s="759" t="n">
         <v>0</v>
       </c>
       <c r="D165" s="430" t="n">
@@ -44186,14 +43841,14 @@
       <c r="F165" s="618" t="n">
         <v>2</v>
       </c>
-      <c r="G165" s="782" t="str">
+      <c r="G165" s="752" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!D244</f>
         <v>Dzioch Ryszard i Iwona</v>
       </c>
       <c r="H165" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="I165" s="776" t="n">
+      <c r="I165" s="746" t="n">
         <f aca="false">H165-E165</f>
         <v>-1</v>
       </c>
@@ -44201,33 +43856,33 @@
         <f aca="false">'Lista braci - Reg. 2018'!B244</f>
         <v>Lublin Różańcowa 1</v>
       </c>
-      <c r="K165" s="787" t="s">
+      <c r="K165" s="757" t="s">
         <v>384</v>
       </c>
-      <c r="Q165" s="866"/>
-      <c r="S165" s="866"/>
-      <c r="T165" s="866"/>
-      <c r="U165" s="866"/>
-      <c r="V165" s="866"/>
-      <c r="W165" s="866"/>
-      <c r="X165" s="866"/>
+      <c r="Q165" s="836"/>
+      <c r="S165" s="836"/>
+      <c r="T165" s="836"/>
+      <c r="U165" s="836"/>
+      <c r="V165" s="836"/>
+      <c r="W165" s="836"/>
+      <c r="X165" s="836"/>
     </row>
     <row r="166" s="517" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="596"/>
-      <c r="B166" s="907" t="n">
-        <v>1</v>
-      </c>
-      <c r="C166" s="814" t="n">
-        <v>0</v>
-      </c>
-      <c r="D166" s="777" t="n">
+      <c r="B166" s="877" t="n">
+        <v>1</v>
+      </c>
+      <c r="C166" s="785" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" s="747" t="n">
         <v>0</v>
       </c>
       <c r="E166" s="531"/>
-      <c r="F166" s="841" t="n">
-        <v>0</v>
-      </c>
-      <c r="G166" s="816"/>
+      <c r="F166" s="811" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" s="787"/>
       <c r="H166" s="31" t="n">
         <v>0</v>
       </c>
@@ -44235,24 +43890,24 @@
         <f aca="false">H166-E166</f>
         <v>0</v>
       </c>
-      <c r="J166" s="779"/>
-      <c r="K166" s="787" t="s">
+      <c r="J166" s="749"/>
+      <c r="K166" s="757" t="s">
         <v>386</v>
       </c>
-      <c r="Q166" s="866"/>
-      <c r="S166" s="866"/>
-      <c r="T166" s="866"/>
-      <c r="U166" s="866"/>
-      <c r="V166" s="866"/>
-      <c r="W166" s="866"/>
-      <c r="X166" s="866"/>
+      <c r="Q166" s="836"/>
+      <c r="S166" s="836"/>
+      <c r="T166" s="836"/>
+      <c r="U166" s="836"/>
+      <c r="V166" s="836"/>
+      <c r="W166" s="836"/>
+      <c r="X166" s="836"/>
     </row>
     <row r="167" s="517" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="598"/>
-      <c r="B167" s="908" t="n">
-        <v>1</v>
-      </c>
-      <c r="C167" s="794" t="n">
+      <c r="B167" s="878" t="n">
+        <v>1</v>
+      </c>
+      <c r="C167" s="764" t="n">
         <v>0</v>
       </c>
       <c r="D167" s="55" t="n">
@@ -44262,7 +43917,7 @@
       <c r="F167" s="540" t="n">
         <v>0</v>
       </c>
-      <c r="G167" s="781"/>
+      <c r="G167" s="751"/>
       <c r="H167" s="48" t="n">
         <v>0</v>
       </c>
@@ -44271,38 +43926,38 @@
         <v>0</v>
       </c>
       <c r="J167" s="622"/>
-      <c r="K167" s="787" t="s">
+      <c r="K167" s="757" t="s">
         <v>387</v>
       </c>
-      <c r="Q167" s="866"/>
-      <c r="S167" s="866"/>
-      <c r="T167" s="866"/>
-      <c r="U167" s="866"/>
-      <c r="V167" s="866"/>
-      <c r="W167" s="866"/>
-      <c r="X167" s="866"/>
-    </row>
-    <row r="168" s="865" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q167" s="836"/>
+      <c r="S167" s="836"/>
+      <c r="T167" s="836"/>
+      <c r="U167" s="836"/>
+      <c r="V167" s="836"/>
+      <c r="W167" s="836"/>
+      <c r="X167" s="836"/>
+    </row>
+    <row r="168" s="835" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="594" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="B168" s="565" t="n">
         <v>1</v>
       </c>
-      <c r="C168" s="810" t="n">
-        <v>0</v>
-      </c>
-      <c r="D168" s="810" t="n">
-        <v>0</v>
-      </c>
-      <c r="E168" s="805" t="n">
+      <c r="C168" s="780" t="n">
+        <v>0</v>
+      </c>
+      <c r="D168" s="780" t="n">
+        <v>0</v>
+      </c>
+      <c r="E168" s="775" t="n">
         <f aca="false">SUM(B168:B169)+SUM(C168:C169)*2+SUM(D168:D169)</f>
         <v>2</v>
       </c>
       <c r="F168" s="552" t="n">
         <v>1</v>
       </c>
-      <c r="G168" s="791" t="str">
+      <c r="G168" s="761" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!D260</f>
         <v>Grabowski Andrzej</v>
       </c>
@@ -44313,20 +43968,20 @@
         <f aca="false">H168-E168</f>
         <v>-1</v>
       </c>
-      <c r="J168" s="792" t="str">
+      <c r="J168" s="762" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!B260</f>
         <v>Lublin Różańcowa 2</v>
       </c>
       <c r="K168" s="517"/>
-      <c r="P168" s="866"/>
-      <c r="R168" s="866"/>
-      <c r="S168" s="866"/>
-      <c r="T168" s="866"/>
-      <c r="U168" s="866"/>
-      <c r="V168" s="866"/>
-      <c r="W168" s="866"/>
-    </row>
-    <row r="169" s="865" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P168" s="836"/>
+      <c r="R168" s="836"/>
+      <c r="S168" s="836"/>
+      <c r="T168" s="836"/>
+      <c r="U168" s="836"/>
+      <c r="V168" s="836"/>
+      <c r="W168" s="836"/>
+    </row>
+    <row r="169" s="835" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="598"/>
       <c r="B169" s="206" t="n">
         <v>0</v>
@@ -44337,11 +43992,11 @@
       <c r="D169" s="538" t="n">
         <v>1</v>
       </c>
-      <c r="E169" s="805"/>
+      <c r="E169" s="775"/>
       <c r="F169" s="715" t="n">
         <v>1</v>
       </c>
-      <c r="G169" s="781" t="str">
+      <c r="G169" s="751" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!D261</f>
         <v>Juchniewicz Grzegorz</v>
       </c>
@@ -44357,25 +44012,25 @@
         <v>Lublin Różańcowa 2</v>
       </c>
       <c r="K169" s="517"/>
-      <c r="P169" s="866"/>
-      <c r="R169" s="866"/>
-      <c r="S169" s="866"/>
-      <c r="T169" s="866"/>
-      <c r="U169" s="866"/>
-      <c r="V169" s="866"/>
-      <c r="W169" s="866"/>
-    </row>
-    <row r="170" s="865" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P169" s="836"/>
+      <c r="R169" s="836"/>
+      <c r="S169" s="836"/>
+      <c r="T169" s="836"/>
+      <c r="U169" s="836"/>
+      <c r="V169" s="836"/>
+      <c r="W169" s="836"/>
+    </row>
+    <row r="170" s="835" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="594" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="B170" s="529" t="n">
         <v>1</v>
       </c>
-      <c r="C170" s="789" t="n">
-        <v>0</v>
-      </c>
-      <c r="D170" s="789" t="n">
+      <c r="C170" s="759" t="n">
+        <v>0</v>
+      </c>
+      <c r="D170" s="759" t="n">
         <v>0</v>
       </c>
       <c r="E170" s="531" t="n">
@@ -44385,14 +44040,14 @@
       <c r="F170" s="712" t="n">
         <v>1</v>
       </c>
-      <c r="G170" s="782" t="str">
+      <c r="G170" s="752" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!D262</f>
         <v>Wrona Robert</v>
       </c>
       <c r="H170" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="I170" s="772" t="n">
+      <c r="I170" s="534" t="n">
         <f aca="false">H170-E170</f>
         <v>-1</v>
       </c>
@@ -44400,15 +44055,15 @@
         <f aca="false">'Lista braci - Reg. 2018'!B262</f>
         <v>Lublin Różańcowa 2</v>
       </c>
-      <c r="P170" s="866"/>
-      <c r="R170" s="866"/>
-      <c r="S170" s="866"/>
-      <c r="T170" s="866"/>
-      <c r="U170" s="866"/>
-      <c r="V170" s="866"/>
-      <c r="W170" s="866"/>
-    </row>
-    <row r="171" s="865" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P170" s="836"/>
+      <c r="R170" s="836"/>
+      <c r="S170" s="836"/>
+      <c r="T170" s="836"/>
+      <c r="U170" s="836"/>
+      <c r="V170" s="836"/>
+      <c r="W170" s="836"/>
+    </row>
+    <row r="171" s="835" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="598"/>
       <c r="B171" s="206" t="n">
         <v>0</v>
@@ -44420,10 +44075,10 @@
         <v>1</v>
       </c>
       <c r="E171" s="531"/>
-      <c r="F171" s="910" t="n">
-        <v>0</v>
-      </c>
-      <c r="G171" s="781"/>
+      <c r="F171" s="880" t="n">
+        <v>0</v>
+      </c>
+      <c r="G171" s="751"/>
       <c r="H171" s="48" t="n">
         <v>0</v>
       </c>
@@ -44432,30 +44087,30 @@
         <v>0</v>
       </c>
       <c r="J171" s="622"/>
-      <c r="K171" s="784"/>
+      <c r="K171" s="754"/>
       <c r="L171" s="517"/>
       <c r="M171" s="517"/>
       <c r="N171" s="517"/>
       <c r="O171" s="517"/>
-      <c r="P171" s="866"/>
-      <c r="R171" s="866"/>
-      <c r="S171" s="866"/>
-      <c r="T171" s="866"/>
-      <c r="U171" s="866"/>
-      <c r="V171" s="866"/>
-      <c r="W171" s="866"/>
+      <c r="P171" s="836"/>
+      <c r="R171" s="836"/>
+      <c r="S171" s="836"/>
+      <c r="T171" s="836"/>
+      <c r="U171" s="836"/>
+      <c r="V171" s="836"/>
+      <c r="W171" s="836"/>
     </row>
     <row r="172" s="517" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="594" t="s">
-        <v>498</v>
-      </c>
-      <c r="B172" s="789" t="n">
+        <v>489</v>
+      </c>
+      <c r="B172" s="759" t="n">
         <v>0</v>
       </c>
       <c r="C172" s="529" t="n">
         <v>1</v>
       </c>
-      <c r="D172" s="789" t="n">
+      <c r="D172" s="759" t="n">
         <v>0</v>
       </c>
       <c r="E172" s="531" t="n">
@@ -44465,14 +44120,14 @@
       <c r="F172" s="712" t="n">
         <v>1</v>
       </c>
-      <c r="G172" s="782" t="str">
+      <c r="G172" s="752" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!D233</f>
         <v>Szczęch Jan</v>
       </c>
       <c r="H172" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="I172" s="772" t="n">
+      <c r="I172" s="534" t="n">
         <f aca="false">H172-E172</f>
         <v>-1</v>
       </c>
@@ -44480,16 +44135,16 @@
         <f aca="false">'Lista braci - Reg. 2018'!B233</f>
         <v>Lublin Poczekajka 9</v>
       </c>
-      <c r="K172" s="785" t="s">
+      <c r="K172" s="755" t="s">
         <v>383</v>
       </c>
-      <c r="P172" s="866"/>
-      <c r="R172" s="866"/>
-      <c r="S172" s="866"/>
-      <c r="T172" s="866"/>
-      <c r="U172" s="866"/>
-      <c r="V172" s="866"/>
-      <c r="W172" s="866"/>
+      <c r="P172" s="836"/>
+      <c r="R172" s="836"/>
+      <c r="S172" s="836"/>
+      <c r="T172" s="836"/>
+      <c r="U172" s="836"/>
+      <c r="V172" s="836"/>
+      <c r="W172" s="836"/>
     </row>
     <row r="173" s="517" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="598"/>
@@ -44506,7 +44161,7 @@
       <c r="F173" s="715" t="n">
         <v>1</v>
       </c>
-      <c r="G173" s="781" t="str">
+      <c r="G173" s="751" t="str">
         <f aca="false">'Lista braci - Reg. 2018'!D234</f>
         <v>Domurad Filip</v>
       </c>
@@ -44521,28 +44176,28 @@
         <f aca="false">'Lista braci - Reg. 2018'!B234</f>
         <v>Lublin Poczekajka 9</v>
       </c>
-      <c r="K173" s="787" t="s">
+      <c r="K173" s="757" t="s">
         <v>384</v>
       </c>
-      <c r="P173" s="866"/>
-      <c r="R173" s="866"/>
-      <c r="S173" s="866"/>
-      <c r="T173" s="866"/>
-      <c r="U173" s="866"/>
-      <c r="V173" s="866"/>
-      <c r="W173" s="866"/>
+      <c r="P173" s="836"/>
+      <c r="R173" s="836"/>
+      <c r="S173" s="836"/>
+      <c r="T173" s="836"/>
+      <c r="U173" s="836"/>
+      <c r="V173" s="836"/>
+      <c r="W173" s="836"/>
     </row>
     <row r="174" s="517" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="594" t="s">
-        <v>499</v>
-      </c>
-      <c r="B174" s="789" t="n">
+        <v>490</v>
+      </c>
+      <c r="B174" s="759" t="n">
         <v>0</v>
       </c>
       <c r="C174" s="529" t="n">
         <v>1</v>
       </c>
-      <c r="D174" s="789" t="n">
+      <c r="D174" s="759" t="n">
         <v>0</v>
       </c>
       <c r="E174" s="531" t="n">
@@ -44559,7 +44214,7 @@
       <c r="H174" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="I174" s="772" t="n">
+      <c r="I174" s="534" t="n">
         <f aca="false">H174-E174</f>
         <v>0</v>
       </c>
@@ -44567,16 +44222,16 @@
         <f aca="false">'Lista braci - Reg. 2018'!B285</f>
         <v>Lublin Salezjanie 2</v>
       </c>
-      <c r="K174" s="787" t="s">
+      <c r="K174" s="757" t="s">
         <v>386</v>
       </c>
-      <c r="P174" s="866"/>
-      <c r="R174" s="866"/>
-      <c r="S174" s="866"/>
-      <c r="T174" s="866"/>
-      <c r="U174" s="866"/>
-      <c r="V174" s="866"/>
-      <c r="W174" s="866"/>
+      <c r="P174" s="836"/>
+      <c r="R174" s="836"/>
+      <c r="S174" s="836"/>
+      <c r="T174" s="836"/>
+      <c r="U174" s="836"/>
+      <c r="V174" s="836"/>
+      <c r="W174" s="836"/>
     </row>
     <row r="175" s="517" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="598"/>
@@ -44593,7 +44248,7 @@
       <c r="F175" s="540" t="n">
         <v>0</v>
       </c>
-      <c r="G175" s="781"/>
+      <c r="G175" s="751"/>
       <c r="H175" s="48" t="n">
         <v>0</v>
       </c>
@@ -44602,20 +44257,20 @@
         <v>0</v>
       </c>
       <c r="J175" s="622"/>
-      <c r="K175" s="787" t="s">
+      <c r="K175" s="757" t="s">
         <v>387</v>
       </c>
-      <c r="L175" s="762"/>
-      <c r="M175" s="879"/>
-      <c r="N175" s="880"/>
-      <c r="O175" s="881"/>
-      <c r="P175" s="866"/>
-      <c r="R175" s="866"/>
-      <c r="S175" s="866"/>
-      <c r="T175" s="866"/>
-      <c r="U175" s="866"/>
-      <c r="V175" s="866"/>
-      <c r="W175" s="866"/>
+      <c r="L175" s="733"/>
+      <c r="M175" s="849"/>
+      <c r="N175" s="850"/>
+      <c r="O175" s="851"/>
+      <c r="P175" s="836"/>
+      <c r="R175" s="836"/>
+      <c r="S175" s="836"/>
+      <c r="T175" s="836"/>
+      <c r="U175" s="836"/>
+      <c r="V175" s="836"/>
+      <c r="W175" s="836"/>
     </row>
     <row r="176" s="518" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K176" s="517"/>
@@ -44625,8 +44280,8 @@
     </row>
     <row r="178" s="518" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K178" s="517"/>
-      <c r="M178" s="763"/>
-      <c r="N178" s="764"/>
+      <c r="M178" s="734"/>
+      <c r="N178" s="735"/>
     </row>
     <row r="1048439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/src/assets/kr2018.xlsx
+++ b/src/assets/kr2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Lista braci - Reg. 2018" sheetId="1" state="visible" r:id="rId2"/>
@@ -244,7 +244,7 @@
     <t xml:space="preserve">mężczyzna chory</t>
   </si>
   <si>
-    <t xml:space="preserve">razem na salę gimn. (krzesła - z nianiami i dziećmi) </t>
+    <t xml:space="preserve">razem na salę gimn. (krzesła - z nianiami i dziećmi)</t>
   </si>
   <si>
     <t xml:space="preserve">3-os. z dzieckiem (ew. z nianią rodzinną)</t>
@@ -6006,8 +6006,8 @@
   </sheetPr>
   <dimension ref="A1:Y1540"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A339" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6438,7 +6438,7 @@
       </c>
       <c r="W9" s="14"/>
     </row>
-    <row r="10" s="12" customFormat="true" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="59"/>
       <c r="B10" s="60"/>
       <c r="C10" s="70"/>
@@ -34170,7 +34170,7 @@
   </sheetPr>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A139" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A148" activeCellId="0" sqref="A148"/>
     </sheetView>
   </sheetViews>
@@ -38445,7 +38445,7 @@
   </sheetPr>
   <dimension ref="A1:X1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A171" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A142" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A176" activeCellId="0" sqref="A176"/>
     </sheetView>
   </sheetViews>

--- a/src/assets/kr2018.xlsx
+++ b/src/assets/kr2018.xlsx
@@ -2652,9 +2652,9 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="19" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="19" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
@@ -6006,7 +6006,7 @@
   </sheetPr>
   <dimension ref="A1:Y1540"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A514" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -6273,7 +6273,7 @@
       <c r="W6" s="14"/>
       <c r="X6" s="14"/>
     </row>
-    <row r="7" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="59"/>
       <c r="B7" s="60" t="str">
         <f aca="false">B1</f>
